--- a/start/TIN/TIN Servers_PlataformOPs.xlsx
+++ b/start/TIN/TIN Servers_PlataformOPs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://weg365.sharepoint.com/teams/BR-TI-TIN/Alocacao Recursos/TIN - Detalhamento Atividades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5648" documentId="13_ncr:1_{4B5C97CF-A05B-44F9-AB64-DCE1104D12C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7628BFB7-B42C-4151-9DDC-B86BC79A719D}"/>
+  <xr:revisionPtr revIDLastSave="5655" documentId="13_ncr:1_{4B5C97CF-A05B-44F9-AB64-DCE1104D12C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E69D0FF6-796B-4A93-9502-3948FD74A1FF}"/>
   <bookViews>
-    <workbookView xWindow="-2985" yWindow="-16320" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5970" yWindow="-16320" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog Servers" sheetId="2" r:id="rId1"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="345">
   <si>
     <t>Epic</t>
   </si>
@@ -1853,7 +1853,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2139,12 +2139,6 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2190,7 +2184,7 @@
     <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="802">
+  <dxfs count="795">
     <dxf>
       <font>
         <b/>
@@ -6152,10 +6146,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -6272,9 +6262,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -6409,9 +6396,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -6537,9 +6521,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -6669,9 +6650,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -6801,9 +6779,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -6917,10 +6892,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
@@ -7143,70 +7114,69 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3B6310A3-E34A-4CD5-A7FB-2FA909562852}" name="Tabela13" displayName="Tabela13" ref="A1:T104" totalsRowShown="0" headerRowDxfId="801" dataDxfId="800">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3B6310A3-E34A-4CD5-A7FB-2FA909562852}" name="Tabela13" displayName="Tabela13" ref="A1:T104" totalsRowShown="0" headerRowDxfId="794" dataDxfId="793">
   <autoFilter ref="A1:T104" xr:uid="{60C5897C-4C10-4DE1-B6BC-B05ADF30BE1F}"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{8B1A9690-2E27-4A0C-9DF6-7CC6B2DC87ED}" name="Epic" dataDxfId="799"/>
-    <tableColumn id="2" xr3:uid="{8C272838-9FA9-4BBC-BBCE-3EC8C12101CB}" name="Ações" dataDxfId="798"/>
-    <tableColumn id="16" xr3:uid="{E354EF09-D61B-4DAF-98AB-0B0614B0A98B}" name="Status" dataDxfId="797"/>
-    <tableColumn id="3" xr3:uid="{2AABEEB5-A12C-4DE2-8248-978A0DC4D3E5}" name="Due Date" dataDxfId="796"/>
-    <tableColumn id="4" xr3:uid="{0C75C268-AE5C-4E82-B76B-2ADB807A0365}" name="Assignee" dataDxfId="795"/>
-    <tableColumn id="23" xr3:uid="{57CB9880-6235-4B6E-A097-0AC378A85A7E}" name="Estimated effort" dataDxfId="794"/>
-    <tableColumn id="5" xr3:uid="{D504A01F-D1AF-4F01-96AE-65ED703556D5}" name="Planned effort" dataDxfId="793">
+    <tableColumn id="1" xr3:uid="{8B1A9690-2E27-4A0C-9DF6-7CC6B2DC87ED}" name="Epic" dataDxfId="792"/>
+    <tableColumn id="2" xr3:uid="{8C272838-9FA9-4BBC-BBCE-3EC8C12101CB}" name="Ações" dataDxfId="791"/>
+    <tableColumn id="16" xr3:uid="{E354EF09-D61B-4DAF-98AB-0B0614B0A98B}" name="Status" dataDxfId="790"/>
+    <tableColumn id="3" xr3:uid="{2AABEEB5-A12C-4DE2-8248-978A0DC4D3E5}" name="Due Date" dataDxfId="789"/>
+    <tableColumn id="4" xr3:uid="{0C75C268-AE5C-4E82-B76B-2ADB807A0365}" name="Assignee" dataDxfId="788"/>
+    <tableColumn id="23" xr3:uid="{57CB9880-6235-4B6E-A097-0AC378A85A7E}" name="Estimated effort" dataDxfId="787"/>
+    <tableColumn id="5" xr3:uid="{D504A01F-D1AF-4F01-96AE-65ED703556D5}" name="Planned effort" dataDxfId="786">
       <calculatedColumnFormula>SUM(Tabela13[[#This Row],[Mês 1]:[Mês 12]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{758C47E5-C839-4201-B5C8-1D9F00604F19}" name="Mês 1" dataDxfId="792"/>
-    <tableColumn id="7" xr3:uid="{567F833B-87CB-49E3-BDB8-79F26D8F2730}" name="Mês 2" dataDxfId="791"/>
-    <tableColumn id="8" xr3:uid="{981B754C-7BB7-470F-8014-AF4B50817565}" name="Mês 3" dataDxfId="790"/>
-    <tableColumn id="9" xr3:uid="{1C18D282-B6B5-4FC5-835A-A867DEC4ADF6}" name="Mês 4" dataDxfId="789"/>
-    <tableColumn id="10" xr3:uid="{D4E3BF5E-F46D-4805-80AA-2A64E74EDD02}" name="Mês 5" dataDxfId="788"/>
-    <tableColumn id="11" xr3:uid="{04F1CD94-15F9-4DB6-9FC1-84FC0564EBC0}" name="Mês 6" dataDxfId="787"/>
-    <tableColumn id="12" xr3:uid="{68B6B203-AA78-4FA0-BD80-DC0AB82F5DDD}" name="Mês 7" dataDxfId="786"/>
-    <tableColumn id="13" xr3:uid="{2C15EBEF-5293-4B87-A96B-78CBB1DD85A2}" name="Mês 8" dataDxfId="785"/>
-    <tableColumn id="14" xr3:uid="{B9CB2FC4-87A3-4262-9BA5-5249DC68E7BF}" name="Mês 9" dataDxfId="784"/>
-    <tableColumn id="15" xr3:uid="{214F1BAC-DA30-4A8D-B437-640434011392}" name="Mês 10" dataDxfId="783"/>
-    <tableColumn id="22" xr3:uid="{5D3DFDD0-4A2A-451B-9336-B6071B70243D}" name="Mês 11" dataDxfId="782"/>
-    <tableColumn id="21" xr3:uid="{B37F580D-6E8B-4963-944B-5E949A64FC4A}" name="Mês 12" dataDxfId="781"/>
-    <tableColumn id="20" xr3:uid="{5F2CA737-F580-43E6-8D75-2539F9B103D0}" name="Nota" dataDxfId="780"/>
+    <tableColumn id="6" xr3:uid="{758C47E5-C839-4201-B5C8-1D9F00604F19}" name="Mês 1" dataDxfId="785"/>
+    <tableColumn id="7" xr3:uid="{567F833B-87CB-49E3-BDB8-79F26D8F2730}" name="Mês 2" dataDxfId="784"/>
+    <tableColumn id="8" xr3:uid="{981B754C-7BB7-470F-8014-AF4B50817565}" name="Mês 3" dataDxfId="783"/>
+    <tableColumn id="9" xr3:uid="{1C18D282-B6B5-4FC5-835A-A867DEC4ADF6}" name="Mês 4" dataDxfId="782"/>
+    <tableColumn id="10" xr3:uid="{D4E3BF5E-F46D-4805-80AA-2A64E74EDD02}" name="Mês 5" dataDxfId="781"/>
+    <tableColumn id="11" xr3:uid="{04F1CD94-15F9-4DB6-9FC1-84FC0564EBC0}" name="Mês 6" dataDxfId="780"/>
+    <tableColumn id="12" xr3:uid="{68B6B203-AA78-4FA0-BD80-DC0AB82F5DDD}" name="Mês 7" dataDxfId="779"/>
+    <tableColumn id="13" xr3:uid="{2C15EBEF-5293-4B87-A96B-78CBB1DD85A2}" name="Mês 8" dataDxfId="778"/>
+    <tableColumn id="14" xr3:uid="{B9CB2FC4-87A3-4262-9BA5-5249DC68E7BF}" name="Mês 9" dataDxfId="777"/>
+    <tableColumn id="15" xr3:uid="{214F1BAC-DA30-4A8D-B437-640434011392}" name="Mês 10" dataDxfId="776"/>
+    <tableColumn id="22" xr3:uid="{5D3DFDD0-4A2A-451B-9336-B6071B70243D}" name="Mês 11" dataDxfId="775"/>
+    <tableColumn id="21" xr3:uid="{B37F580D-6E8B-4963-944B-5E949A64FC4A}" name="Mês 12" dataDxfId="774"/>
+    <tableColumn id="20" xr3:uid="{5F2CA737-F580-43E6-8D75-2539F9B103D0}" name="Nota" dataDxfId="773"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A5F1926E-2D5B-4439-96E8-9429477B6B62}" name="Tabela132" displayName="Tabela132" ref="A1:T29" totalsRowShown="0" headerRowDxfId="779" dataDxfId="778">
-  <autoFilter ref="A1:T29" xr:uid="{60C5897C-4C10-4DE1-B6BC-B05ADF30BE1F}"/>
-  <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{A537C09E-7F22-41A2-8289-469F588A12EF}" name="Epic" dataDxfId="777"/>
-    <tableColumn id="2" xr3:uid="{952FDE4C-F0E4-4CB3-A61B-28AA82FC7677}" name="Ações" dataDxfId="776"/>
-    <tableColumn id="16" xr3:uid="{F8FB0FFF-8AD4-4E94-9E91-59378BF08D9C}" name="Status" dataDxfId="775"/>
-    <tableColumn id="3" xr3:uid="{CA673F04-6CFF-4AC6-99CC-8F6A6B9894C9}" name="Due Date" dataDxfId="774"/>
-    <tableColumn id="4" xr3:uid="{85F5556D-E302-48E9-AC96-15A292DA9E8A}" name="Assignee" dataDxfId="773"/>
-    <tableColumn id="5" xr3:uid="{A2687F5B-ABF3-4196-853B-B172CC8C1C0C}" name="Estimated effort" dataDxfId="772"/>
-    <tableColumn id="6" xr3:uid="{120E8070-5397-45CB-9F14-12D76ED0F2C0}" name="Planned effort" dataDxfId="771">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A5F1926E-2D5B-4439-96E8-9429477B6B62}" name="Tabela132" displayName="Tabela132" ref="A1:S29" totalsRowShown="0" headerRowDxfId="772" dataDxfId="771">
+  <autoFilter ref="A1:S29" xr:uid="{60C5897C-4C10-4DE1-B6BC-B05ADF30BE1F}"/>
+  <tableColumns count="19">
+    <tableColumn id="1" xr3:uid="{A537C09E-7F22-41A2-8289-469F588A12EF}" name="Epic" dataDxfId="770"/>
+    <tableColumn id="2" xr3:uid="{952FDE4C-F0E4-4CB3-A61B-28AA82FC7677}" name="Ações" dataDxfId="769"/>
+    <tableColumn id="16" xr3:uid="{F8FB0FFF-8AD4-4E94-9E91-59378BF08D9C}" name="Status" dataDxfId="768"/>
+    <tableColumn id="3" xr3:uid="{CA673F04-6CFF-4AC6-99CC-8F6A6B9894C9}" name="Due Date" dataDxfId="767"/>
+    <tableColumn id="4" xr3:uid="{85F5556D-E302-48E9-AC96-15A292DA9E8A}" name="Assignee" dataDxfId="766"/>
+    <tableColumn id="5" xr3:uid="{A2687F5B-ABF3-4196-853B-B172CC8C1C0C}" name="Estimated effort" dataDxfId="765"/>
+    <tableColumn id="6" xr3:uid="{120E8070-5397-45CB-9F14-12D76ED0F2C0}" name="Planned effort" dataDxfId="764">
       <calculatedColumnFormula>SUM(Tabela132[[#This Row],[Mês 1]:[Mês 12]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D619A456-5A03-418A-A526-E07AD5976BD8}" name="Mês 1" dataDxfId="770"/>
-    <tableColumn id="8" xr3:uid="{CCFA7B8F-ADDA-4373-B21F-EE73827E25AD}" name="Mês 2" dataDxfId="769"/>
-    <tableColumn id="9" xr3:uid="{E2910E66-9E7E-4091-A49B-648BBD1CB134}" name="Mês 3" dataDxfId="768"/>
-    <tableColumn id="10" xr3:uid="{0EF97EB7-F919-477D-AFEB-497B5793473A}" name="Mês 4" dataDxfId="767"/>
-    <tableColumn id="11" xr3:uid="{7806022D-1F75-4235-B81B-5DC1DBCF8BB3}" name="Mês 5" dataDxfId="766"/>
-    <tableColumn id="12" xr3:uid="{504B5A0D-AA55-433F-91A1-4633E9981120}" name="Mês 6" dataDxfId="765"/>
-    <tableColumn id="13" xr3:uid="{4749807E-1D8A-463D-9936-08B723326E3E}" name="Mês 7" dataDxfId="764"/>
-    <tableColumn id="14" xr3:uid="{3C369829-C57B-4C79-9F31-9FC2F41AA22A}" name="Mês 8" dataDxfId="763"/>
-    <tableColumn id="15" xr3:uid="{26AD765B-766D-4559-A0F1-A4974CFCFB2B}" name="Mês 9" dataDxfId="762"/>
-    <tableColumn id="22" xr3:uid="{4C450F0C-647A-43CB-8595-6C4C0ABCCA9A}" name="Mês 10" dataDxfId="761"/>
-    <tableColumn id="21" xr3:uid="{A0835F2C-152F-4009-931A-44BE0C5A6496}" name="Mês 11" dataDxfId="760"/>
-    <tableColumn id="20" xr3:uid="{7CCF8D3B-9BFD-40EC-9D91-018DF18E4FF5}" name="Mês 12" dataDxfId="759"/>
-    <tableColumn id="19" xr3:uid="{83A102BD-9A72-4093-A311-254714C8E6CF}" name="Nota" dataDxfId="758"/>
+    <tableColumn id="7" xr3:uid="{D619A456-5A03-418A-A526-E07AD5976BD8}" name="Mês 1" dataDxfId="763"/>
+    <tableColumn id="8" xr3:uid="{CCFA7B8F-ADDA-4373-B21F-EE73827E25AD}" name="Mês 2" dataDxfId="762"/>
+    <tableColumn id="9" xr3:uid="{E2910E66-9E7E-4091-A49B-648BBD1CB134}" name="Mês 3" dataDxfId="761"/>
+    <tableColumn id="10" xr3:uid="{0EF97EB7-F919-477D-AFEB-497B5793473A}" name="Mês 4" dataDxfId="760"/>
+    <tableColumn id="11" xr3:uid="{7806022D-1F75-4235-B81B-5DC1DBCF8BB3}" name="Mês 5" dataDxfId="759"/>
+    <tableColumn id="12" xr3:uid="{504B5A0D-AA55-433F-91A1-4633E9981120}" name="Mês 6" dataDxfId="758"/>
+    <tableColumn id="13" xr3:uid="{4749807E-1D8A-463D-9936-08B723326E3E}" name="Mês 7" dataDxfId="757"/>
+    <tableColumn id="14" xr3:uid="{3C369829-C57B-4C79-9F31-9FC2F41AA22A}" name="Mês 8" dataDxfId="756"/>
+    <tableColumn id="15" xr3:uid="{26AD765B-766D-4559-A0F1-A4974CFCFB2B}" name="Mês 9" dataDxfId="755"/>
+    <tableColumn id="22" xr3:uid="{4C450F0C-647A-43CB-8595-6C4C0ABCCA9A}" name="Mês 10" dataDxfId="754"/>
+    <tableColumn id="21" xr3:uid="{A0835F2C-152F-4009-931A-44BE0C5A6496}" name="Mês 11" dataDxfId="753"/>
+    <tableColumn id="20" xr3:uid="{7CCF8D3B-9BFD-40EC-9D91-018DF18E4FF5}" name="Mês 12" dataDxfId="752"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{CE7B39CA-9CEA-443A-A1B1-DF25F95E1766}" name="Tabela14567" displayName="Tabela14567" ref="A1:AB53" totalsRowShown="0" headerRowDxfId="757" dataDxfId="756">
-  <autoFilter ref="A1:AB53" xr:uid="{60C5897C-4C10-4DE1-B6BC-B05ADF30BE1F}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{CE7B39CA-9CEA-443A-A1B1-DF25F95E1766}" name="Tabela14567" displayName="Tabela14567" ref="A1:AA53" totalsRowShown="0" headerRowDxfId="751" dataDxfId="750">
+  <autoFilter ref="A1:AA53" xr:uid="{60C5897C-4C10-4DE1-B6BC-B05ADF30BE1F}">
     <filterColumn colId="2">
       <filters blank="1">
         <filter val="Em andamento"/>
@@ -7214,45 +7184,44 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="28">
-    <tableColumn id="1" xr3:uid="{EE289A6C-5700-4272-9B32-66B5A70B31CB}" name="Epic" dataDxfId="755"/>
-    <tableColumn id="2" xr3:uid="{EC48C96C-B497-45F2-BF0A-9811794FDB1D}" name="Ações" dataDxfId="754"/>
-    <tableColumn id="16" xr3:uid="{BDD02027-9F42-4199-8375-236F74D7FDCD}" name="Status" dataDxfId="753"/>
-    <tableColumn id="3" xr3:uid="{F770666B-765B-41DC-A5CE-B6DF39D0880D}" name="Due Date" dataDxfId="752"/>
-    <tableColumn id="4" xr3:uid="{5940F227-9D6D-4C88-BE63-5D2D86568E14}" name="Assignee" dataDxfId="751"/>
-    <tableColumn id="23" xr3:uid="{9F26B43C-9D5F-4B5E-8E59-F8E4AE992A1A}" name="Estimated effort" dataDxfId="750"/>
-    <tableColumn id="5" xr3:uid="{4508400F-4340-4A7A-8115-85F48DCC6A1F}" name="Planned effort" dataDxfId="749">
+  <tableColumns count="27">
+    <tableColumn id="1" xr3:uid="{EE289A6C-5700-4272-9B32-66B5A70B31CB}" name="Epic" dataDxfId="749"/>
+    <tableColumn id="2" xr3:uid="{EC48C96C-B497-45F2-BF0A-9811794FDB1D}" name="Ações" dataDxfId="748"/>
+    <tableColumn id="16" xr3:uid="{BDD02027-9F42-4199-8375-236F74D7FDCD}" name="Status" dataDxfId="747"/>
+    <tableColumn id="3" xr3:uid="{F770666B-765B-41DC-A5CE-B6DF39D0880D}" name="Due Date" dataDxfId="746"/>
+    <tableColumn id="4" xr3:uid="{5940F227-9D6D-4C88-BE63-5D2D86568E14}" name="Assignee" dataDxfId="745"/>
+    <tableColumn id="23" xr3:uid="{9F26B43C-9D5F-4B5E-8E59-F8E4AE992A1A}" name="Estimated effort" dataDxfId="744"/>
+    <tableColumn id="5" xr3:uid="{4508400F-4340-4A7A-8115-85F48DCC6A1F}" name="Planned effort" dataDxfId="743">
       <calculatedColumnFormula>SUM(Tabela14567[[#This Row],[mai/24]:[jul/25]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{4024B35D-D5C5-4CC9-BF1D-194242B09402}" name="mai/24" dataDxfId="748"/>
-    <tableColumn id="7" xr3:uid="{10F2A9D7-5C0C-4BAD-863C-E2E79D2AA5F7}" name="jun/24" dataDxfId="747"/>
-    <tableColumn id="8" xr3:uid="{7EAC2713-0D8D-4F34-BB97-2E13833E1F97}" name="jul/24" dataDxfId="746"/>
-    <tableColumn id="9" xr3:uid="{D91CD170-23D2-4F07-A973-2711FED7E661}" name="ago/24" dataDxfId="745"/>
-    <tableColumn id="10" xr3:uid="{F554D11D-299C-4300-BF37-0DFE32B55E1C}" name="set/24" dataDxfId="744"/>
-    <tableColumn id="11" xr3:uid="{628228E9-61C6-4983-83EE-A19EA3F02BE4}" name="out/24" dataDxfId="743"/>
-    <tableColumn id="12" xr3:uid="{CAC0DDF3-5B4D-4943-81CB-ABC1F647F25B}" name="nov/24" dataDxfId="742"/>
-    <tableColumn id="13" xr3:uid="{5EAED47A-4FF0-4D6D-8534-DA5876F11ED0}" name="dez/24" dataDxfId="741"/>
-    <tableColumn id="14" xr3:uid="{84BC7C3E-66D3-434E-A1B1-A9A5E9F04C22}" name="jan/25" dataDxfId="740"/>
-    <tableColumn id="15" xr3:uid="{9DC7E363-E618-46CA-8851-4EA5DA2A6C04}" name="fev/25" dataDxfId="739"/>
-    <tableColumn id="19" xr3:uid="{C8B10481-AD95-45F8-985D-4D981DB0BDC3}" name="mar/25" dataDxfId="738"/>
-    <tableColumn id="21" xr3:uid="{CF87C928-2C06-476C-9082-F3D54DA57F4C}" name="abr/25" dataDxfId="737"/>
-    <tableColumn id="22" xr3:uid="{B675A93E-7C58-4534-BEBC-6878075475C3}" name="mai/25" dataDxfId="736"/>
-    <tableColumn id="20" xr3:uid="{63D8B4DF-D8ED-4826-BEEB-D47DB0107DAA}" name="jun/25" dataDxfId="735"/>
-    <tableColumn id="18" xr3:uid="{CF776872-834C-4BB2-B773-F21A743F80F1}" name="jul/25" dataDxfId="734"/>
+    <tableColumn id="6" xr3:uid="{4024B35D-D5C5-4CC9-BF1D-194242B09402}" name="mai/24" dataDxfId="742"/>
+    <tableColumn id="7" xr3:uid="{10F2A9D7-5C0C-4BAD-863C-E2E79D2AA5F7}" name="jun/24" dataDxfId="741"/>
+    <tableColumn id="8" xr3:uid="{7EAC2713-0D8D-4F34-BB97-2E13833E1F97}" name="jul/24" dataDxfId="740"/>
+    <tableColumn id="9" xr3:uid="{D91CD170-23D2-4F07-A973-2711FED7E661}" name="ago/24" dataDxfId="739"/>
+    <tableColumn id="10" xr3:uid="{F554D11D-299C-4300-BF37-0DFE32B55E1C}" name="set/24" dataDxfId="738"/>
+    <tableColumn id="11" xr3:uid="{628228E9-61C6-4983-83EE-A19EA3F02BE4}" name="out/24" dataDxfId="737"/>
+    <tableColumn id="12" xr3:uid="{CAC0DDF3-5B4D-4943-81CB-ABC1F647F25B}" name="nov/24" dataDxfId="736"/>
+    <tableColumn id="13" xr3:uid="{5EAED47A-4FF0-4D6D-8534-DA5876F11ED0}" name="dez/24" dataDxfId="735"/>
+    <tableColumn id="14" xr3:uid="{84BC7C3E-66D3-434E-A1B1-A9A5E9F04C22}" name="jan/25" dataDxfId="734"/>
+    <tableColumn id="15" xr3:uid="{9DC7E363-E618-46CA-8851-4EA5DA2A6C04}" name="fev/25" dataDxfId="733"/>
+    <tableColumn id="19" xr3:uid="{C8B10481-AD95-45F8-985D-4D981DB0BDC3}" name="mar/25" dataDxfId="732"/>
+    <tableColumn id="21" xr3:uid="{CF87C928-2C06-476C-9082-F3D54DA57F4C}" name="abr/25" dataDxfId="731"/>
+    <tableColumn id="22" xr3:uid="{B675A93E-7C58-4534-BEBC-6878075475C3}" name="mai/25" dataDxfId="730"/>
+    <tableColumn id="20" xr3:uid="{63D8B4DF-D8ED-4826-BEEB-D47DB0107DAA}" name="jun/25" dataDxfId="729"/>
+    <tableColumn id="18" xr3:uid="{CF776872-834C-4BB2-B773-F21A743F80F1}" name="jul/25" dataDxfId="728"/>
     <tableColumn id="24" xr3:uid="{FED9A5BD-9D5A-416D-B839-47430C87ADFF}" name="ago/25"/>
     <tableColumn id="25" xr3:uid="{04965CB6-D3B4-4523-BF69-DA634A2BA223}" name="set/25"/>
     <tableColumn id="26" xr3:uid="{7EC85E0B-FB79-4DD9-B815-0211C70F8CB8}" name="out/25"/>
     <tableColumn id="27" xr3:uid="{55540C32-69A6-41BA-BE2F-B1B6577FB7AF}" name="nov/25"/>
     <tableColumn id="28" xr3:uid="{F30C59D0-809D-4681-AE89-2344D0961E4C}" name="dez/25"/>
-    <tableColumn id="17" xr3:uid="{B19F5706-C1C9-4677-A883-C6B40ECCF96B}" name="Nota" dataDxfId="733"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{96E87FEF-1F93-4988-979C-6F0B3CF3948C}" name="Tabela145" displayName="Tabela145" ref="A1:AB59" totalsRowShown="0" headerRowDxfId="732" dataDxfId="731">
-  <autoFilter ref="A1:AB59" xr:uid="{60C5897C-4C10-4DE1-B6BC-B05ADF30BE1F}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{96E87FEF-1F93-4988-979C-6F0B3CF3948C}" name="Tabela145" displayName="Tabela145" ref="A1:AA59" totalsRowShown="0" headerRowDxfId="727" dataDxfId="726">
+  <autoFilter ref="A1:AA59" xr:uid="{60C5897C-4C10-4DE1-B6BC-B05ADF30BE1F}">
     <filterColumn colId="2">
       <filters blank="1">
         <filter val="Em andamento"/>
@@ -7261,45 +7230,44 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="28">
-    <tableColumn id="1" xr3:uid="{F9519377-81C7-4187-9753-447939E185DB}" name="Epic" dataDxfId="730"/>
-    <tableColumn id="2" xr3:uid="{EA51D613-A85E-4474-953F-A26E5DD0F2B2}" name="Ações" dataDxfId="729"/>
-    <tableColumn id="16" xr3:uid="{936A0E97-E444-460D-BFE4-D2E41D277B13}" name="Status" dataDxfId="728"/>
-    <tableColumn id="3" xr3:uid="{E6B627BD-28EC-4BB3-B900-286BABD54094}" name="Due Date" dataDxfId="727"/>
-    <tableColumn id="4" xr3:uid="{48D00FAB-CDF7-460B-961E-CDA7EA4FCE99}" name="Assignee" dataDxfId="726"/>
-    <tableColumn id="23" xr3:uid="{E6799212-A853-461E-BC81-CF1BD0169C3A}" name="Estimated effort" dataDxfId="725"/>
-    <tableColumn id="5" xr3:uid="{450AD5D5-D55C-4927-A1B0-7A8DA311FCAF}" name="Planned effort" dataDxfId="724">
+  <tableColumns count="27">
+    <tableColumn id="1" xr3:uid="{F9519377-81C7-4187-9753-447939E185DB}" name="Epic" dataDxfId="725"/>
+    <tableColumn id="2" xr3:uid="{EA51D613-A85E-4474-953F-A26E5DD0F2B2}" name="Ações" dataDxfId="724"/>
+    <tableColumn id="16" xr3:uid="{936A0E97-E444-460D-BFE4-D2E41D277B13}" name="Status" dataDxfId="723"/>
+    <tableColumn id="3" xr3:uid="{E6B627BD-28EC-4BB3-B900-286BABD54094}" name="Due Date" dataDxfId="722"/>
+    <tableColumn id="4" xr3:uid="{48D00FAB-CDF7-460B-961E-CDA7EA4FCE99}" name="Assignee" dataDxfId="721"/>
+    <tableColumn id="23" xr3:uid="{E6799212-A853-461E-BC81-CF1BD0169C3A}" name="Estimated effort" dataDxfId="720"/>
+    <tableColumn id="5" xr3:uid="{450AD5D5-D55C-4927-A1B0-7A8DA311FCAF}" name="Planned effort" dataDxfId="719">
       <calculatedColumnFormula>SUM(Tabela145[[#This Row],[mai/24]:[jul/25]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B39C378E-159F-4247-8CE3-E8C988F19612}" name="mai/24" dataDxfId="723"/>
-    <tableColumn id="7" xr3:uid="{6392714A-3175-46E0-9FE9-27F425EE0197}" name="jun/24" dataDxfId="722"/>
-    <tableColumn id="8" xr3:uid="{5A832306-F685-479B-8FA0-042D07FB823D}" name="jul/24" dataDxfId="721"/>
-    <tableColumn id="9" xr3:uid="{E035633E-2089-41E4-A8DD-7AB04335908A}" name="ago/24" dataDxfId="720"/>
-    <tableColumn id="10" xr3:uid="{6773E4DF-22A8-4002-8564-8D426FACBE5C}" name="set/24" dataDxfId="719"/>
-    <tableColumn id="11" xr3:uid="{C8D0F604-B09A-43C9-A943-0A9D249858AB}" name="out/24" dataDxfId="718"/>
-    <tableColumn id="12" xr3:uid="{198E8D9C-C811-4F93-BB92-870CA38DDBC9}" name="nov/24" dataDxfId="717"/>
-    <tableColumn id="13" xr3:uid="{7C075B77-555E-490F-8367-55EB7DF2A783}" name="dez/24" dataDxfId="716"/>
-    <tableColumn id="14" xr3:uid="{3E762F6B-5F6E-438E-B334-C97D88CF2A3F}" name="jan/25" dataDxfId="715"/>
-    <tableColumn id="15" xr3:uid="{06E1EFAC-EE08-4C2C-838A-486CAA4F584D}" name="fev/25" dataDxfId="714"/>
-    <tableColumn id="22" xr3:uid="{7294784F-A804-467B-A693-ECD0945F2D4D}" name="mar/25" dataDxfId="713"/>
-    <tableColumn id="21" xr3:uid="{3E470DB1-FEF9-4830-B59F-78A3A36361B2}" name="abr/25" dataDxfId="712"/>
-    <tableColumn id="20" xr3:uid="{D12C36DF-9E18-4634-812E-94724C3C78FA}" name="mai/25" dataDxfId="711"/>
-    <tableColumn id="19" xr3:uid="{9FF40D33-7559-4468-95B1-1CF49B89D802}" name="jun/25" dataDxfId="710"/>
-    <tableColumn id="18" xr3:uid="{DBE93E5C-B6F4-473F-9D46-E33E3A0984F5}" name="jul/25" dataDxfId="709"/>
-    <tableColumn id="24" xr3:uid="{892C3823-348D-4393-AF8C-2CBE8D4A05AB}" name="ago/25" dataDxfId="708"/>
-    <tableColumn id="25" xr3:uid="{20306C4B-FE25-477D-A31E-16A920C58831}" name="set/25" dataDxfId="707"/>
-    <tableColumn id="26" xr3:uid="{7D2AF9A8-06A1-4161-A5B6-4B28E466C073}" name="out/25" dataDxfId="706"/>
-    <tableColumn id="27" xr3:uid="{9731A01B-5113-4606-BFF9-B04FF379A7B5}" name="nov/25" dataDxfId="705"/>
-    <tableColumn id="28" xr3:uid="{FA01F68C-F9EF-44F7-8732-E641BA99DBDD}" name="dez/25" dataDxfId="704"/>
-    <tableColumn id="17" xr3:uid="{AAD216CF-9486-4134-9142-D0A53E3F3FE2}" name="Nota" dataDxfId="703"/>
+    <tableColumn id="6" xr3:uid="{B39C378E-159F-4247-8CE3-E8C988F19612}" name="mai/24" dataDxfId="718"/>
+    <tableColumn id="7" xr3:uid="{6392714A-3175-46E0-9FE9-27F425EE0197}" name="jun/24" dataDxfId="717"/>
+    <tableColumn id="8" xr3:uid="{5A832306-F685-479B-8FA0-042D07FB823D}" name="jul/24" dataDxfId="716"/>
+    <tableColumn id="9" xr3:uid="{E035633E-2089-41E4-A8DD-7AB04335908A}" name="ago/24" dataDxfId="715"/>
+    <tableColumn id="10" xr3:uid="{6773E4DF-22A8-4002-8564-8D426FACBE5C}" name="set/24" dataDxfId="714"/>
+    <tableColumn id="11" xr3:uid="{C8D0F604-B09A-43C9-A943-0A9D249858AB}" name="out/24" dataDxfId="713"/>
+    <tableColumn id="12" xr3:uid="{198E8D9C-C811-4F93-BB92-870CA38DDBC9}" name="nov/24" dataDxfId="712"/>
+    <tableColumn id="13" xr3:uid="{7C075B77-555E-490F-8367-55EB7DF2A783}" name="dez/24" dataDxfId="711"/>
+    <tableColumn id="14" xr3:uid="{3E762F6B-5F6E-438E-B334-C97D88CF2A3F}" name="jan/25" dataDxfId="710"/>
+    <tableColumn id="15" xr3:uid="{06E1EFAC-EE08-4C2C-838A-486CAA4F584D}" name="fev/25" dataDxfId="709"/>
+    <tableColumn id="22" xr3:uid="{7294784F-A804-467B-A693-ECD0945F2D4D}" name="mar/25" dataDxfId="708"/>
+    <tableColumn id="21" xr3:uid="{3E470DB1-FEF9-4830-B59F-78A3A36361B2}" name="abr/25" dataDxfId="707"/>
+    <tableColumn id="20" xr3:uid="{D12C36DF-9E18-4634-812E-94724C3C78FA}" name="mai/25" dataDxfId="706"/>
+    <tableColumn id="19" xr3:uid="{9FF40D33-7559-4468-95B1-1CF49B89D802}" name="jun/25" dataDxfId="705"/>
+    <tableColumn id="18" xr3:uid="{DBE93E5C-B6F4-473F-9D46-E33E3A0984F5}" name="jul/25" dataDxfId="704"/>
+    <tableColumn id="24" xr3:uid="{892C3823-348D-4393-AF8C-2CBE8D4A05AB}" name="ago/25" dataDxfId="703"/>
+    <tableColumn id="25" xr3:uid="{20306C4B-FE25-477D-A31E-16A920C58831}" name="set/25" dataDxfId="702"/>
+    <tableColumn id="26" xr3:uid="{7D2AF9A8-06A1-4161-A5B6-4B28E466C073}" name="out/25" dataDxfId="701"/>
+    <tableColumn id="27" xr3:uid="{9731A01B-5113-4606-BFF9-B04FF379A7B5}" name="nov/25" dataDxfId="700"/>
+    <tableColumn id="28" xr3:uid="{FA01F68C-F9EF-44F7-8732-E641BA99DBDD}" name="dez/25" dataDxfId="699"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{76087582-A7E6-47FB-9822-402BD1F32586}" name="Tabela14" displayName="Tabela14" ref="A1:AB55" totalsRowShown="0" headerRowDxfId="702" dataDxfId="701">
-  <autoFilter ref="A1:AB55" xr:uid="{60C5897C-4C10-4DE1-B6BC-B05ADF30BE1F}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{76087582-A7E6-47FB-9822-402BD1F32586}" name="Tabela14" displayName="Tabela14" ref="A1:AA55" totalsRowShown="0" headerRowDxfId="698" dataDxfId="697">
+  <autoFilter ref="A1:AA55" xr:uid="{60C5897C-4C10-4DE1-B6BC-B05ADF30BE1F}">
     <filterColumn colId="2">
       <filters blank="1">
         <filter val="Aguardando"/>
@@ -7309,84 +7277,82 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="28">
-    <tableColumn id="1" xr3:uid="{27EF11F8-0D02-4148-A485-90D49472F292}" name="Epic" dataDxfId="700"/>
-    <tableColumn id="2" xr3:uid="{9061DFBA-9FCF-4614-A489-E45871AEEC40}" name="Ações" dataDxfId="699"/>
-    <tableColumn id="16" xr3:uid="{F35679E5-70DD-4EF3-92B0-74A5E990352B}" name="Status" dataDxfId="698"/>
-    <tableColumn id="3" xr3:uid="{DC745C88-45BF-4F3C-8AD4-4A29A610C754}" name="Due Date" dataDxfId="697"/>
-    <tableColumn id="4" xr3:uid="{C74C004F-DD7E-4572-8478-28BEED5BACDE}" name="Assignee" dataDxfId="696"/>
-    <tableColumn id="18" xr3:uid="{15F32EF8-3041-45A8-AB90-60F9FFC67869}" name="Estimated effort" dataDxfId="695"/>
-    <tableColumn id="5" xr3:uid="{F4D64031-1A3C-41A9-B3D4-7204A0697297}" name="Planned effort" dataDxfId="694">
+  <tableColumns count="27">
+    <tableColumn id="1" xr3:uid="{27EF11F8-0D02-4148-A485-90D49472F292}" name="Epic" dataDxfId="696"/>
+    <tableColumn id="2" xr3:uid="{9061DFBA-9FCF-4614-A489-E45871AEEC40}" name="Ações" dataDxfId="695"/>
+    <tableColumn id="16" xr3:uid="{F35679E5-70DD-4EF3-92B0-74A5E990352B}" name="Status" dataDxfId="694"/>
+    <tableColumn id="3" xr3:uid="{DC745C88-45BF-4F3C-8AD4-4A29A610C754}" name="Due Date" dataDxfId="693"/>
+    <tableColumn id="4" xr3:uid="{C74C004F-DD7E-4572-8478-28BEED5BACDE}" name="Assignee" dataDxfId="692"/>
+    <tableColumn id="18" xr3:uid="{15F32EF8-3041-45A8-AB90-60F9FFC67869}" name="Estimated effort" dataDxfId="691"/>
+    <tableColumn id="5" xr3:uid="{F4D64031-1A3C-41A9-B3D4-7204A0697297}" name="Planned effort" dataDxfId="690">
       <calculatedColumnFormula>SUM(Tabela14[[#This Row],[mai/24]:[dez/25]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{FF27B6CE-F671-4DD1-A978-6E523D108770}" name="mai/24" dataDxfId="693"/>
-    <tableColumn id="7" xr3:uid="{49C1E54D-0F03-4EDE-A870-84475B2E94EF}" name="jun/24" dataDxfId="692"/>
-    <tableColumn id="8" xr3:uid="{0E32FB83-BFA1-4147-BCEF-AD7377E169A2}" name="jul/24" dataDxfId="691"/>
-    <tableColumn id="9" xr3:uid="{A9E0B361-1744-4649-A63D-C9F6A63755E2}" name="ago/24" dataDxfId="690"/>
-    <tableColumn id="10" xr3:uid="{E6593ED7-5820-4928-A9C3-DD87048AE2F8}" name="set/24" dataDxfId="689"/>
-    <tableColumn id="11" xr3:uid="{0E92934C-29C6-4A1D-94D7-137860B737D0}" name="out/24" dataDxfId="688"/>
-    <tableColumn id="12" xr3:uid="{EB4811A4-D7F4-41D9-B634-8EBDE5646D36}" name="nov/24" dataDxfId="687"/>
-    <tableColumn id="13" xr3:uid="{E8221E99-4143-4B68-9E8C-ED458FEFE89B}" name="dez/24" dataDxfId="686"/>
-    <tableColumn id="14" xr3:uid="{75D22200-3923-408F-847B-1D5D19C07D97}" name="jan/25" dataDxfId="685"/>
-    <tableColumn id="15" xr3:uid="{A0F2F8BA-EE95-4828-A250-CC513D01AD80}" name="fev/25" dataDxfId="684"/>
-    <tableColumn id="21" xr3:uid="{0FB3155B-3532-4844-BAAF-71CC9F13162C}" name="mar/25" dataDxfId="683"/>
-    <tableColumn id="20" xr3:uid="{D8F7CEFD-D476-4EC7-A261-909444E73D10}" name="abr/25" dataDxfId="682"/>
-    <tableColumn id="22" xr3:uid="{9BE920BF-BDC3-4A68-94CD-A2C746298552}" name="mai/25" dataDxfId="681"/>
-    <tableColumn id="19" xr3:uid="{B5172698-1513-45DA-A68A-64A05267E872}" name="jun/25" dataDxfId="680"/>
-    <tableColumn id="23" xr3:uid="{A06B4CFC-293E-4EB5-933F-2B452CA27668}" name="jul/25" dataDxfId="679"/>
-    <tableColumn id="24" xr3:uid="{A764DB73-50BA-4630-A046-99DDCA238AD4}" name="ago/25" dataDxfId="678"/>
-    <tableColumn id="25" xr3:uid="{4B1A1667-6C79-44B9-8809-2EF42FE48F43}" name="set/25" dataDxfId="677"/>
-    <tableColumn id="26" xr3:uid="{570E787D-A690-41A5-AC51-417DB2E51499}" name="out/25" dataDxfId="676"/>
-    <tableColumn id="27" xr3:uid="{095CC2D1-08A5-449C-ABE4-3F80425A3360}" name="nov/25" dataDxfId="675"/>
-    <tableColumn id="28" xr3:uid="{FED825CE-36D8-4767-BB9B-BA1D9A543EA6}" name="dez/25" dataDxfId="674"/>
-    <tableColumn id="17" xr3:uid="{5DB179B7-95AC-4346-8987-85C56AEC4DE7}" name="Nota" dataDxfId="673"/>
+    <tableColumn id="6" xr3:uid="{FF27B6CE-F671-4DD1-A978-6E523D108770}" name="mai/24" dataDxfId="689"/>
+    <tableColumn id="7" xr3:uid="{49C1E54D-0F03-4EDE-A870-84475B2E94EF}" name="jun/24" dataDxfId="688"/>
+    <tableColumn id="8" xr3:uid="{0E32FB83-BFA1-4147-BCEF-AD7377E169A2}" name="jul/24" dataDxfId="687"/>
+    <tableColumn id="9" xr3:uid="{A9E0B361-1744-4649-A63D-C9F6A63755E2}" name="ago/24" dataDxfId="686"/>
+    <tableColumn id="10" xr3:uid="{E6593ED7-5820-4928-A9C3-DD87048AE2F8}" name="set/24" dataDxfId="685"/>
+    <tableColumn id="11" xr3:uid="{0E92934C-29C6-4A1D-94D7-137860B737D0}" name="out/24" dataDxfId="684"/>
+    <tableColumn id="12" xr3:uid="{EB4811A4-D7F4-41D9-B634-8EBDE5646D36}" name="nov/24" dataDxfId="683"/>
+    <tableColumn id="13" xr3:uid="{E8221E99-4143-4B68-9E8C-ED458FEFE89B}" name="dez/24" dataDxfId="682"/>
+    <tableColumn id="14" xr3:uid="{75D22200-3923-408F-847B-1D5D19C07D97}" name="jan/25" dataDxfId="681"/>
+    <tableColumn id="15" xr3:uid="{A0F2F8BA-EE95-4828-A250-CC513D01AD80}" name="fev/25" dataDxfId="680"/>
+    <tableColumn id="21" xr3:uid="{0FB3155B-3532-4844-BAAF-71CC9F13162C}" name="mar/25" dataDxfId="679"/>
+    <tableColumn id="20" xr3:uid="{D8F7CEFD-D476-4EC7-A261-909444E73D10}" name="abr/25" dataDxfId="678"/>
+    <tableColumn id="22" xr3:uid="{9BE920BF-BDC3-4A68-94CD-A2C746298552}" name="mai/25" dataDxfId="677"/>
+    <tableColumn id="19" xr3:uid="{B5172698-1513-45DA-A68A-64A05267E872}" name="jun/25" dataDxfId="676"/>
+    <tableColumn id="23" xr3:uid="{A06B4CFC-293E-4EB5-933F-2B452CA27668}" name="jul/25" dataDxfId="675"/>
+    <tableColumn id="24" xr3:uid="{A764DB73-50BA-4630-A046-99DDCA238AD4}" name="ago/25" dataDxfId="674"/>
+    <tableColumn id="25" xr3:uid="{4B1A1667-6C79-44B9-8809-2EF42FE48F43}" name="set/25" dataDxfId="673"/>
+    <tableColumn id="26" xr3:uid="{570E787D-A690-41A5-AC51-417DB2E51499}" name="out/25" dataDxfId="672"/>
+    <tableColumn id="27" xr3:uid="{095CC2D1-08A5-449C-ABE4-3F80425A3360}" name="nov/25" dataDxfId="671"/>
+    <tableColumn id="28" xr3:uid="{FED825CE-36D8-4767-BB9B-BA1D9A543EA6}" name="dez/25" dataDxfId="670"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{28CC034A-F4F3-4FD9-BF6E-3CB5B9ED13F3}" name="Tabela1456" displayName="Tabela1456" ref="A1:AB24" totalsRowShown="0" headerRowDxfId="672" dataDxfId="671">
-  <autoFilter ref="A1:AB24" xr:uid="{60C5897C-4C10-4DE1-B6BC-B05ADF30BE1F}"/>
-  <tableColumns count="28">
-    <tableColumn id="1" xr3:uid="{103F5DC6-AC2F-4573-B1DA-76ADE103FD95}" name="Epic" dataDxfId="670"/>
-    <tableColumn id="2" xr3:uid="{10D9139A-45D0-4BEC-AD41-403773FD4C83}" name="Ações" dataDxfId="669"/>
-    <tableColumn id="16" xr3:uid="{EA705947-9F22-4B71-BB4F-7C1EF9E96449}" name="Status" dataDxfId="668"/>
-    <tableColumn id="3" xr3:uid="{423DF51E-FA23-4974-8777-438E362422A8}" name="Due Date" dataDxfId="667"/>
-    <tableColumn id="4" xr3:uid="{B16CCEF8-8F40-4D24-8F19-2BAED99ED176}" name="Assignee" dataDxfId="666"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{28CC034A-F4F3-4FD9-BF6E-3CB5B9ED13F3}" name="Tabela1456" displayName="Tabela1456" ref="A1:AA24" totalsRowShown="0" headerRowDxfId="669" dataDxfId="668">
+  <autoFilter ref="A1:AA24" xr:uid="{60C5897C-4C10-4DE1-B6BC-B05ADF30BE1F}"/>
+  <tableColumns count="27">
+    <tableColumn id="1" xr3:uid="{103F5DC6-AC2F-4573-B1DA-76ADE103FD95}" name="Epic" dataDxfId="667"/>
+    <tableColumn id="2" xr3:uid="{10D9139A-45D0-4BEC-AD41-403773FD4C83}" name="Ações" dataDxfId="666"/>
+    <tableColumn id="16" xr3:uid="{EA705947-9F22-4B71-BB4F-7C1EF9E96449}" name="Status" dataDxfId="665"/>
+    <tableColumn id="3" xr3:uid="{423DF51E-FA23-4974-8777-438E362422A8}" name="Due Date" dataDxfId="664"/>
+    <tableColumn id="4" xr3:uid="{B16CCEF8-8F40-4D24-8F19-2BAED99ED176}" name="Assignee" dataDxfId="663"/>
     <tableColumn id="23" xr3:uid="{9A66BA2D-F257-4CFF-825F-8B9A9DCE0DB8}" name="Estimated effort"/>
-    <tableColumn id="5" xr3:uid="{4A5CE1D9-E654-4A7A-829C-B6261AE6A6EA}" name="Planned effort" dataDxfId="665">
+    <tableColumn id="5" xr3:uid="{4A5CE1D9-E654-4A7A-829C-B6261AE6A6EA}" name="Planned effort" dataDxfId="662">
       <calculatedColumnFormula>SUM(Tabela1456[[#This Row],[mai/24]:[jul/25]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{DFA1AA3E-C06A-416C-A994-1BCB67FB80A2}" name="mai/24" dataDxfId="664"/>
-    <tableColumn id="7" xr3:uid="{B9D499B7-D8FE-4D6C-AD84-50FE52DA5B76}" name="jun/24" dataDxfId="663"/>
-    <tableColumn id="8" xr3:uid="{1C81CC09-816D-44A2-AE5B-8DFE0A22956A}" name="jul/24" dataDxfId="662"/>
-    <tableColumn id="9" xr3:uid="{6F561303-E93F-4B24-82F3-A48FD1333F76}" name="ago/24" dataDxfId="661"/>
-    <tableColumn id="10" xr3:uid="{F64B8867-3B58-4861-BCB8-0A9CE4C6C4A6}" name="set/24" dataDxfId="660"/>
-    <tableColumn id="11" xr3:uid="{97ED0AFA-EEAD-4331-A02D-2456C7E32B00}" name="out/24" dataDxfId="659"/>
-    <tableColumn id="12" xr3:uid="{EF2A60BA-1F7A-48B8-A7A5-A4F2BD71D999}" name="nov/24" dataDxfId="658"/>
-    <tableColumn id="13" xr3:uid="{A86E44F8-99F5-4F11-AAF9-0BAD05635525}" name="dez/24" dataDxfId="657"/>
-    <tableColumn id="14" xr3:uid="{815F4872-9634-4E42-BE4F-B63708467CD7}" name="jan/25" dataDxfId="656"/>
-    <tableColumn id="22" xr3:uid="{CFC09A57-BBF4-49BD-B271-6B9DF42401A2}" name="fev/25" dataDxfId="655"/>
-    <tableColumn id="15" xr3:uid="{ADADB421-2C01-4666-81B6-0A2B88CED929}" name="mar/25" dataDxfId="654"/>
-    <tableColumn id="21" xr3:uid="{EF40C496-BC9B-420D-9D3B-F509449CF3E8}" name="abr/25" dataDxfId="653"/>
-    <tableColumn id="20" xr3:uid="{0C37B4D3-F0B4-4589-904B-1C85E0D16F44}" name="mai/25" dataDxfId="652"/>
-    <tableColumn id="19" xr3:uid="{B7F57FA5-5C23-4D7E-A76B-8D109F785E13}" name="jun/25" dataDxfId="651"/>
-    <tableColumn id="18" xr3:uid="{C36741B3-F4C3-4622-AC46-6EA43763152A}" name="jul/25" dataDxfId="650"/>
-    <tableColumn id="24" xr3:uid="{AB2A6F46-5E36-4111-8E9F-524FE376E1C2}" name="ago/25" dataDxfId="649"/>
-    <tableColumn id="25" xr3:uid="{D66D6EB4-2A40-4154-A3E4-7A108BD16BE2}" name="set/25" dataDxfId="648"/>
-    <tableColumn id="26" xr3:uid="{5F479AAC-B689-4D31-A8EA-61E05413DEC1}" name="out/25" dataDxfId="647"/>
-    <tableColumn id="27" xr3:uid="{9C4B3B84-DAF7-48EA-A71E-E5B0ABDBD41B}" name="nov/25" dataDxfId="646"/>
-    <tableColumn id="28" xr3:uid="{AF24C645-3635-4C24-A710-52F46D43D47E}" name="dez/25" dataDxfId="645"/>
-    <tableColumn id="17" xr3:uid="{A5D14AC7-43DB-4A36-918A-CF7EE8FC06D3}" name="Nota" dataDxfId="644"/>
+    <tableColumn id="6" xr3:uid="{DFA1AA3E-C06A-416C-A994-1BCB67FB80A2}" name="mai/24" dataDxfId="661"/>
+    <tableColumn id="7" xr3:uid="{B9D499B7-D8FE-4D6C-AD84-50FE52DA5B76}" name="jun/24" dataDxfId="660"/>
+    <tableColumn id="8" xr3:uid="{1C81CC09-816D-44A2-AE5B-8DFE0A22956A}" name="jul/24" dataDxfId="659"/>
+    <tableColumn id="9" xr3:uid="{6F561303-E93F-4B24-82F3-A48FD1333F76}" name="ago/24" dataDxfId="658"/>
+    <tableColumn id="10" xr3:uid="{F64B8867-3B58-4861-BCB8-0A9CE4C6C4A6}" name="set/24" dataDxfId="657"/>
+    <tableColumn id="11" xr3:uid="{97ED0AFA-EEAD-4331-A02D-2456C7E32B00}" name="out/24" dataDxfId="656"/>
+    <tableColumn id="12" xr3:uid="{EF2A60BA-1F7A-48B8-A7A5-A4F2BD71D999}" name="nov/24" dataDxfId="655"/>
+    <tableColumn id="13" xr3:uid="{A86E44F8-99F5-4F11-AAF9-0BAD05635525}" name="dez/24" dataDxfId="654"/>
+    <tableColumn id="14" xr3:uid="{815F4872-9634-4E42-BE4F-B63708467CD7}" name="jan/25" dataDxfId="653"/>
+    <tableColumn id="22" xr3:uid="{CFC09A57-BBF4-49BD-B271-6B9DF42401A2}" name="fev/25" dataDxfId="652"/>
+    <tableColumn id="15" xr3:uid="{ADADB421-2C01-4666-81B6-0A2B88CED929}" name="mar/25" dataDxfId="651"/>
+    <tableColumn id="21" xr3:uid="{EF40C496-BC9B-420D-9D3B-F509449CF3E8}" name="abr/25" dataDxfId="650"/>
+    <tableColumn id="20" xr3:uid="{0C37B4D3-F0B4-4589-904B-1C85E0D16F44}" name="mai/25" dataDxfId="649"/>
+    <tableColumn id="19" xr3:uid="{B7F57FA5-5C23-4D7E-A76B-8D109F785E13}" name="jun/25" dataDxfId="648"/>
+    <tableColumn id="18" xr3:uid="{C36741B3-F4C3-4622-AC46-6EA43763152A}" name="jul/25" dataDxfId="647"/>
+    <tableColumn id="24" xr3:uid="{AB2A6F46-5E36-4111-8E9F-524FE376E1C2}" name="ago/25" dataDxfId="646"/>
+    <tableColumn id="25" xr3:uid="{D66D6EB4-2A40-4154-A3E4-7A108BD16BE2}" name="set/25" dataDxfId="645"/>
+    <tableColumn id="26" xr3:uid="{5F479AAC-B689-4D31-A8EA-61E05413DEC1}" name="out/25" dataDxfId="644"/>
+    <tableColumn id="27" xr3:uid="{9C4B3B84-DAF7-48EA-A71E-E5B0ABDBD41B}" name="nov/25" dataDxfId="643"/>
+    <tableColumn id="28" xr3:uid="{AF24C645-3635-4C24-A710-52F46D43D47E}" name="dez/25" dataDxfId="642"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AE3F8A31-0CBF-4150-ABC8-AC8C26E297AB}" name="Tabela14568" displayName="Tabela14568" ref="A1:AB75" totalsRowShown="0" headerRowDxfId="643" dataDxfId="642">
-  <autoFilter ref="A1:AB75" xr:uid="{60C5897C-4C10-4DE1-B6BC-B05ADF30BE1F}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AE3F8A31-0CBF-4150-ABC8-AC8C26E297AB}" name="Tabela14568" displayName="Tabela14568" ref="A1:AA75" totalsRowShown="0" headerRowDxfId="641" dataDxfId="640">
+  <autoFilter ref="A1:AA75" xr:uid="{60C5897C-4C10-4DE1-B6BC-B05ADF30BE1F}">
     <filterColumn colId="2">
       <filters blank="1">
         <filter val="Aguardando"/>
@@ -7396,45 +7362,44 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="28">
-    <tableColumn id="1" xr3:uid="{E648E619-7E01-4B71-BD41-65FF8310AAB5}" name="Epic" dataDxfId="641"/>
-    <tableColumn id="2" xr3:uid="{1554F9D1-D472-48FF-A716-4A6C6FE1979F}" name="Ações" dataDxfId="640"/>
-    <tableColumn id="16" xr3:uid="{48ABEBFA-9108-49F8-8EC4-DA498E23C42D}" name="Status" dataDxfId="639"/>
-    <tableColumn id="3" xr3:uid="{645546AC-93AC-4CC9-B406-59045ADE82A7}" name="Due Date" dataDxfId="638"/>
-    <tableColumn id="4" xr3:uid="{DC5B44F8-7FA1-4C1A-BECB-45B62059C3D6}" name="Assignee" dataDxfId="637"/>
-    <tableColumn id="23" xr3:uid="{A5C17CBD-47A1-4A0C-90BB-FD2E0B1109C6}" name="Estimated effort" dataDxfId="636"/>
-    <tableColumn id="5" xr3:uid="{92CED1B5-DAAA-44EA-8570-FA76BF65D043}" name="Planned effort" dataDxfId="635">
+  <tableColumns count="27">
+    <tableColumn id="1" xr3:uid="{E648E619-7E01-4B71-BD41-65FF8310AAB5}" name="Epic" dataDxfId="639"/>
+    <tableColumn id="2" xr3:uid="{1554F9D1-D472-48FF-A716-4A6C6FE1979F}" name="Ações" dataDxfId="638"/>
+    <tableColumn id="16" xr3:uid="{48ABEBFA-9108-49F8-8EC4-DA498E23C42D}" name="Status" dataDxfId="637"/>
+    <tableColumn id="3" xr3:uid="{645546AC-93AC-4CC9-B406-59045ADE82A7}" name="Due Date" dataDxfId="636"/>
+    <tableColumn id="4" xr3:uid="{DC5B44F8-7FA1-4C1A-BECB-45B62059C3D6}" name="Assignee" dataDxfId="635"/>
+    <tableColumn id="23" xr3:uid="{A5C17CBD-47A1-4A0C-90BB-FD2E0B1109C6}" name="Estimated effort" dataDxfId="634"/>
+    <tableColumn id="5" xr3:uid="{92CED1B5-DAAA-44EA-8570-FA76BF65D043}" name="Planned effort" dataDxfId="633">
       <calculatedColumnFormula>SUM(Tabela14568[[#This Row],[mai/24]:[jul/25]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{4BAD2A0F-326F-474B-8E16-A09F639A8993}" name="mai/24" dataDxfId="634"/>
-    <tableColumn id="7" xr3:uid="{00A605B4-5A63-4F5B-B798-C6E3D02E5606}" name="jun/24" dataDxfId="633"/>
-    <tableColumn id="8" xr3:uid="{DE702E14-3DA5-484C-B37E-E8421610610B}" name="jul/24" dataDxfId="632"/>
-    <tableColumn id="9" xr3:uid="{932B7E66-BFF7-4ECF-984A-6D68E939E277}" name="ago/24" dataDxfId="631"/>
-    <tableColumn id="10" xr3:uid="{CA2C0CF9-EBCE-4524-AB0C-FEE170FF89E0}" name="set/24" dataDxfId="630"/>
-    <tableColumn id="11" xr3:uid="{5C01C8D0-589F-410F-92E6-300A841D4FD6}" name="out/24" dataDxfId="629"/>
-    <tableColumn id="12" xr3:uid="{CDF154EB-9CA5-4BAF-BC82-BDB41994367E}" name="nov/24" dataDxfId="628"/>
-    <tableColumn id="13" xr3:uid="{7838B7E0-998E-4F00-BAF2-34246F9CA7F7}" name="dez/24" dataDxfId="627"/>
-    <tableColumn id="14" xr3:uid="{3413C3F7-9CEA-4B1F-8B80-B28661523207}" name="jan/25" dataDxfId="626"/>
-    <tableColumn id="22" xr3:uid="{7F7B9ACE-48A8-42A0-8835-B8D97FC22565}" name="fev/25" dataDxfId="625"/>
-    <tableColumn id="15" xr3:uid="{8BD69AD0-504E-4D75-9426-5F1045493209}" name="mar/25" dataDxfId="624"/>
-    <tableColumn id="21" xr3:uid="{A9AA46B0-43D1-45B1-AF93-5D53D4AC1B75}" name="abr/25" dataDxfId="623"/>
-    <tableColumn id="20" xr3:uid="{6C5FAB39-AE8E-431D-9432-9970AB61F4AF}" name="mai/25" dataDxfId="622"/>
-    <tableColumn id="19" xr3:uid="{36134927-F8BE-41FF-915A-A357D4051F13}" name="jun/25" dataDxfId="621"/>
-    <tableColumn id="18" xr3:uid="{D62F723B-5874-455D-A55C-17C86587475E}" name="jul/25" dataDxfId="620"/>
-    <tableColumn id="24" xr3:uid="{233B0B82-B38C-4255-B259-06DADB1D2500}" name="ago/25" dataDxfId="619"/>
-    <tableColumn id="25" xr3:uid="{95D7518F-4FF6-4C02-A3C3-533241E08A17}" name="set/25" dataDxfId="618"/>
-    <tableColumn id="26" xr3:uid="{E2EF8D76-BB60-4FE1-AD25-F767E15FB081}" name="out/25" dataDxfId="617"/>
-    <tableColumn id="27" xr3:uid="{7CEA1CC0-7E46-4BBE-AE89-338E03B3152C}" name="nov/25" dataDxfId="616"/>
-    <tableColumn id="28" xr3:uid="{F3141750-69B0-4127-ACCD-BE9446D49F90}" name="dez/25" dataDxfId="615"/>
-    <tableColumn id="17" xr3:uid="{22939B5F-232E-4C99-82FF-874292A1B180}" name="Nota" dataDxfId="614"/>
+    <tableColumn id="6" xr3:uid="{4BAD2A0F-326F-474B-8E16-A09F639A8993}" name="mai/24" dataDxfId="632"/>
+    <tableColumn id="7" xr3:uid="{00A605B4-5A63-4F5B-B798-C6E3D02E5606}" name="jun/24" dataDxfId="631"/>
+    <tableColumn id="8" xr3:uid="{DE702E14-3DA5-484C-B37E-E8421610610B}" name="jul/24" dataDxfId="630"/>
+    <tableColumn id="9" xr3:uid="{932B7E66-BFF7-4ECF-984A-6D68E939E277}" name="ago/24" dataDxfId="629"/>
+    <tableColumn id="10" xr3:uid="{CA2C0CF9-EBCE-4524-AB0C-FEE170FF89E0}" name="set/24" dataDxfId="628"/>
+    <tableColumn id="11" xr3:uid="{5C01C8D0-589F-410F-92E6-300A841D4FD6}" name="out/24" dataDxfId="627"/>
+    <tableColumn id="12" xr3:uid="{CDF154EB-9CA5-4BAF-BC82-BDB41994367E}" name="nov/24" dataDxfId="626"/>
+    <tableColumn id="13" xr3:uid="{7838B7E0-998E-4F00-BAF2-34246F9CA7F7}" name="dez/24" dataDxfId="625"/>
+    <tableColumn id="14" xr3:uid="{3413C3F7-9CEA-4B1F-8B80-B28661523207}" name="jan/25" dataDxfId="624"/>
+    <tableColumn id="22" xr3:uid="{7F7B9ACE-48A8-42A0-8835-B8D97FC22565}" name="fev/25" dataDxfId="623"/>
+    <tableColumn id="15" xr3:uid="{8BD69AD0-504E-4D75-9426-5F1045493209}" name="mar/25" dataDxfId="622"/>
+    <tableColumn id="21" xr3:uid="{A9AA46B0-43D1-45B1-AF93-5D53D4AC1B75}" name="abr/25" dataDxfId="621"/>
+    <tableColumn id="20" xr3:uid="{6C5FAB39-AE8E-431D-9432-9970AB61F4AF}" name="mai/25" dataDxfId="620"/>
+    <tableColumn id="19" xr3:uid="{36134927-F8BE-41FF-915A-A357D4051F13}" name="jun/25" dataDxfId="619"/>
+    <tableColumn id="18" xr3:uid="{D62F723B-5874-455D-A55C-17C86587475E}" name="jul/25" dataDxfId="618"/>
+    <tableColumn id="24" xr3:uid="{233B0B82-B38C-4255-B259-06DADB1D2500}" name="ago/25" dataDxfId="617"/>
+    <tableColumn id="25" xr3:uid="{95D7518F-4FF6-4C02-A3C3-533241E08A17}" name="set/25" dataDxfId="616"/>
+    <tableColumn id="26" xr3:uid="{E2EF8D76-BB60-4FE1-AD25-F767E15FB081}" name="out/25" dataDxfId="615"/>
+    <tableColumn id="27" xr3:uid="{7CEA1CC0-7E46-4BBE-AE89-338E03B3152C}" name="nov/25" dataDxfId="614"/>
+    <tableColumn id="28" xr3:uid="{F3141750-69B0-4127-ACCD-BE9446D49F90}" name="dez/25" dataDxfId="613"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{8CCC4089-2932-4BA7-A046-E55481FF02B9}" name="Tabela145689" displayName="Tabela145689" ref="A1:AB58" totalsRowShown="0" headerRowDxfId="613" dataDxfId="612">
-  <autoFilter ref="A1:AB58" xr:uid="{60C5897C-4C10-4DE1-B6BC-B05ADF30BE1F}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{8CCC4089-2932-4BA7-A046-E55481FF02B9}" name="Tabela145689" displayName="Tabela145689" ref="A1:AA58" totalsRowShown="0" headerRowDxfId="612" dataDxfId="611">
+  <autoFilter ref="A1:AA58" xr:uid="{60C5897C-4C10-4DE1-B6BC-B05ADF30BE1F}">
     <filterColumn colId="2">
       <filters blank="1">
         <filter val="Aguardando"/>
@@ -7443,37 +7408,36 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="28">
-    <tableColumn id="1" xr3:uid="{E99585DC-25E2-463E-A8D6-7BD1298D17EA}" name="Epic" dataDxfId="611"/>
-    <tableColumn id="2" xr3:uid="{3828A7CC-C16B-4BB0-8581-DDF3514D755C}" name="Ações" dataDxfId="610"/>
-    <tableColumn id="16" xr3:uid="{F82202F5-8E09-4080-923E-676DBC89A607}" name="Status" dataDxfId="609"/>
-    <tableColumn id="3" xr3:uid="{FBD42F2F-8D85-419C-9659-B6C1534FC6CB}" name="Due Date" dataDxfId="608"/>
-    <tableColumn id="4" xr3:uid="{6EDE1439-A212-4B02-B70A-4B86EA44B263}" name="Assignee" dataDxfId="607"/>
-    <tableColumn id="23" xr3:uid="{4F4B132A-FF06-4628-B893-AE9626B26BCC}" name="Estimated effort" dataDxfId="606"/>
-    <tableColumn id="5" xr3:uid="{01024BF7-59A5-426E-9619-996CB5DB67FD}" name="Planned effort" dataDxfId="605">
+  <tableColumns count="27">
+    <tableColumn id="1" xr3:uid="{E99585DC-25E2-463E-A8D6-7BD1298D17EA}" name="Epic" dataDxfId="610"/>
+    <tableColumn id="2" xr3:uid="{3828A7CC-C16B-4BB0-8581-DDF3514D755C}" name="Ações" dataDxfId="609"/>
+    <tableColumn id="16" xr3:uid="{F82202F5-8E09-4080-923E-676DBC89A607}" name="Status" dataDxfId="608"/>
+    <tableColumn id="3" xr3:uid="{FBD42F2F-8D85-419C-9659-B6C1534FC6CB}" name="Due Date" dataDxfId="607"/>
+    <tableColumn id="4" xr3:uid="{6EDE1439-A212-4B02-B70A-4B86EA44B263}" name="Assignee" dataDxfId="606"/>
+    <tableColumn id="23" xr3:uid="{4F4B132A-FF06-4628-B893-AE9626B26BCC}" name="Estimated effort" dataDxfId="605"/>
+    <tableColumn id="5" xr3:uid="{01024BF7-59A5-426E-9619-996CB5DB67FD}" name="Planned effort" dataDxfId="604">
       <calculatedColumnFormula>SUM(Tabela145689[[#This Row],[mai/24]:[jul/25]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{DC108B4E-E525-4B7D-9E83-73D96E23FE72}" name="mai/24" dataDxfId="604"/>
-    <tableColumn id="7" xr3:uid="{074D4FC0-DA68-49CA-AB11-63E80D7CEB75}" name="jun/24" dataDxfId="603"/>
-    <tableColumn id="8" xr3:uid="{F8E1316E-4714-411B-8757-F6C8EC2CA48D}" name="jul/24" dataDxfId="602"/>
-    <tableColumn id="9" xr3:uid="{37C73C5B-5ADD-493C-AF3B-4B18CB3A1D09}" name="ago/24" dataDxfId="601"/>
-    <tableColumn id="10" xr3:uid="{E4A417E7-9814-4168-AA57-F88AC05EFCF7}" name="set/24" dataDxfId="600"/>
-    <tableColumn id="11" xr3:uid="{74C22249-3983-46CD-969E-B74D50A3B670}" name="out/24" dataDxfId="599"/>
-    <tableColumn id="12" xr3:uid="{8F548D10-B5DC-4B30-BFB3-452EF9554413}" name="nov/24" dataDxfId="598"/>
-    <tableColumn id="13" xr3:uid="{C7D80847-8F2B-4DFE-B6C3-FC90AA8333EC}" name="dez/24" dataDxfId="597"/>
-    <tableColumn id="14" xr3:uid="{A6C4587C-C816-42E1-B9B8-9BEE32D76D09}" name="jan/25" dataDxfId="596"/>
-    <tableColumn id="22" xr3:uid="{2BCF6D53-D298-4F2A-A259-383799DB62B3}" name="fev/25" dataDxfId="595"/>
-    <tableColumn id="15" xr3:uid="{B632AE63-BE4D-4E2A-A180-7074759A73EB}" name="mar/25" dataDxfId="594"/>
-    <tableColumn id="21" xr3:uid="{D1E309CB-5886-485A-B2F6-E9C8B6577BA9}" name="abr/25" dataDxfId="593"/>
-    <tableColumn id="20" xr3:uid="{26258284-B632-40A8-A64B-693921FEAE06}" name="mai/25" dataDxfId="592"/>
-    <tableColumn id="19" xr3:uid="{3E600523-233A-48F3-B7D2-930D9FCE28E5}" name="jun/25" dataDxfId="591"/>
-    <tableColumn id="18" xr3:uid="{534E1F73-06E9-49E8-81C9-B3885FD0AC74}" name="jul/25" dataDxfId="590"/>
-    <tableColumn id="24" xr3:uid="{BB388204-94F6-4B8D-8751-07F1D625A9BE}" name="ago/25" dataDxfId="589"/>
-    <tableColumn id="17" xr3:uid="{6A78AC30-8A62-4F2B-93C0-FA6EB716423D}" name="set/25" dataDxfId="588"/>
-    <tableColumn id="25" xr3:uid="{C8A1885A-4C18-4BC3-A44C-500FCC5850F9}" name="out/25" dataDxfId="587"/>
-    <tableColumn id="26" xr3:uid="{071B13DB-34AD-41C1-94AE-48DB85E5C62A}" name="nov/25" dataDxfId="586"/>
-    <tableColumn id="27" xr3:uid="{859516B8-7262-4B7A-873C-A8A1BDD0D41F}" name="dez/25" dataDxfId="585"/>
-    <tableColumn id="28" xr3:uid="{DB2AA9BE-C6D3-4F7E-A6EF-CE122823CEF7}" name="Nota" dataDxfId="584"/>
+    <tableColumn id="6" xr3:uid="{DC108B4E-E525-4B7D-9E83-73D96E23FE72}" name="mai/24" dataDxfId="603"/>
+    <tableColumn id="7" xr3:uid="{074D4FC0-DA68-49CA-AB11-63E80D7CEB75}" name="jun/24" dataDxfId="602"/>
+    <tableColumn id="8" xr3:uid="{F8E1316E-4714-411B-8757-F6C8EC2CA48D}" name="jul/24" dataDxfId="601"/>
+    <tableColumn id="9" xr3:uid="{37C73C5B-5ADD-493C-AF3B-4B18CB3A1D09}" name="ago/24" dataDxfId="600"/>
+    <tableColumn id="10" xr3:uid="{E4A417E7-9814-4168-AA57-F88AC05EFCF7}" name="set/24" dataDxfId="599"/>
+    <tableColumn id="11" xr3:uid="{74C22249-3983-46CD-969E-B74D50A3B670}" name="out/24" dataDxfId="598"/>
+    <tableColumn id="12" xr3:uid="{8F548D10-B5DC-4B30-BFB3-452EF9554413}" name="nov/24" dataDxfId="597"/>
+    <tableColumn id="13" xr3:uid="{C7D80847-8F2B-4DFE-B6C3-FC90AA8333EC}" name="dez/24" dataDxfId="596"/>
+    <tableColumn id="14" xr3:uid="{A6C4587C-C816-42E1-B9B8-9BEE32D76D09}" name="jan/25" dataDxfId="595"/>
+    <tableColumn id="22" xr3:uid="{2BCF6D53-D298-4F2A-A259-383799DB62B3}" name="fev/25" dataDxfId="594"/>
+    <tableColumn id="15" xr3:uid="{B632AE63-BE4D-4E2A-A180-7074759A73EB}" name="mar/25" dataDxfId="593"/>
+    <tableColumn id="21" xr3:uid="{D1E309CB-5886-485A-B2F6-E9C8B6577BA9}" name="abr/25" dataDxfId="592"/>
+    <tableColumn id="20" xr3:uid="{26258284-B632-40A8-A64B-693921FEAE06}" name="mai/25" dataDxfId="591"/>
+    <tableColumn id="19" xr3:uid="{3E600523-233A-48F3-B7D2-930D9FCE28E5}" name="jun/25" dataDxfId="590"/>
+    <tableColumn id="18" xr3:uid="{534E1F73-06E9-49E8-81C9-B3885FD0AC74}" name="jul/25" dataDxfId="589"/>
+    <tableColumn id="24" xr3:uid="{BB388204-94F6-4B8D-8751-07F1D625A9BE}" name="ago/25" dataDxfId="588"/>
+    <tableColumn id="17" xr3:uid="{6A78AC30-8A62-4F2B-93C0-FA6EB716423D}" name="set/25" dataDxfId="587"/>
+    <tableColumn id="25" xr3:uid="{C8A1885A-4C18-4BC3-A44C-500FCC5850F9}" name="out/25" dataDxfId="586"/>
+    <tableColumn id="26" xr3:uid="{071B13DB-34AD-41C1-94AE-48DB85E5C62A}" name="nov/25" dataDxfId="585"/>
+    <tableColumn id="27" xr3:uid="{859516B8-7262-4B7A-873C-A8A1BDD0D41F}" name="dez/25" dataDxfId="584"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13750,11 +13714,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B4AAED-D8A0-457D-A26A-1646549A0219}">
-  <dimension ref="A1:T36"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13767,10 +13731,10 @@
     <col min="6" max="6" width="16.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" style="1" customWidth="1"/>
     <col min="8" max="10" width="10.42578125" style="1" customWidth="1"/>
-    <col min="11" max="20" width="11.5703125" style="1" customWidth="1"/>
+    <col min="11" max="19" width="11.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13828,11 +13792,8 @@
       <c r="S1" s="65" t="s">
         <v>265</v>
       </c>
-      <c r="T1" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -13889,9 +13850,8 @@
         <f t="shared" si="0"/>
         <v>168</v>
       </c>
-      <c r="T2" s="12"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -13936,9 +13896,8 @@
       <c r="S3" s="19">
         <v>168</v>
       </c>
-      <c r="T3" s="13"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
@@ -13999,9 +13958,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T4" s="9"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="95" t="s">
         <v>210</v>
       </c>
@@ -14056,9 +14014,8 @@
       <c r="S5" s="42">
         <v>0</v>
       </c>
-      <c r="T5" s="5"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="95" t="s">
         <v>305</v>
       </c>
@@ -14113,9 +14070,8 @@
       <c r="S6" s="42">
         <v>0</v>
       </c>
-      <c r="T6" s="5"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="95" t="s">
         <v>180</v>
       </c>
@@ -14170,9 +14126,8 @@
       <c r="S7" s="42">
         <v>0</v>
       </c>
-      <c r="T7" s="5"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="95" t="s">
         <v>306</v>
       </c>
@@ -14227,9 +14182,8 @@
       <c r="S8" s="42">
         <v>0</v>
       </c>
-      <c r="T8" s="5"/>
-    </row>
-    <row r="9" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="95" t="s">
         <v>307</v>
       </c>
@@ -14284,9 +14238,8 @@
       <c r="S9" s="42">
         <v>0</v>
       </c>
-      <c r="T9" s="5"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="95" t="s">
         <v>182</v>
       </c>
@@ -14341,9 +14294,8 @@
       <c r="S10" s="42">
         <v>0</v>
       </c>
-      <c r="T10" s="5"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="95" t="s">
         <v>308</v>
       </c>
@@ -14398,9 +14350,8 @@
       <c r="S11" s="42">
         <v>0</v>
       </c>
-      <c r="T11" s="5"/>
-    </row>
-    <row r="12" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="95" t="s">
         <v>309</v>
       </c>
@@ -14455,9 +14406,8 @@
       <c r="S12" s="42">
         <v>0</v>
       </c>
-      <c r="T12" s="5"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="95" t="s">
         <v>178</v>
       </c>
@@ -14512,9 +14462,8 @@
       <c r="S13" s="42">
         <v>0</v>
       </c>
-      <c r="T13" s="5"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="95" t="s">
         <v>177</v>
       </c>
@@ -14569,9 +14518,8 @@
       <c r="S14" s="42">
         <v>0</v>
       </c>
-      <c r="T14" s="5"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="95" t="s">
         <v>310</v>
       </c>
@@ -14626,9 +14574,8 @@
       <c r="S15" s="42">
         <v>0</v>
       </c>
-      <c r="T15" s="5"/>
-    </row>
-    <row r="16" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="95" t="s">
         <v>311</v>
       </c>
@@ -14683,9 +14630,8 @@
       <c r="S16" s="42">
         <v>0</v>
       </c>
-      <c r="T16" s="5"/>
-    </row>
-    <row r="17" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="95" t="s">
         <v>312</v>
       </c>
@@ -14740,9 +14686,8 @@
       <c r="S17" s="42">
         <v>0</v>
       </c>
-      <c r="T17" s="5"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="95" t="s">
         <v>176</v>
       </c>
@@ -14797,9 +14742,8 @@
       <c r="S18" s="42">
         <v>0</v>
       </c>
-      <c r="T18" s="5"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="95" t="s">
         <v>175</v>
       </c>
@@ -14854,9 +14798,8 @@
       <c r="S19" s="42">
         <v>0</v>
       </c>
-      <c r="T19" s="5"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="95" t="s">
         <v>313</v>
       </c>
@@ -14911,9 +14854,8 @@
       <c r="S20" s="42">
         <v>0</v>
       </c>
-      <c r="T20" s="5"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C21" s="83"/>
       <c r="E21" s="50"/>
       <c r="F21" s="7"/>
@@ -14957,9 +14899,8 @@
       <c r="S21" s="42">
         <v>0</v>
       </c>
-      <c r="T21" s="5"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C22" s="83"/>
       <c r="E22" s="50"/>
       <c r="F22" s="7"/>
@@ -15003,9 +14944,8 @@
       <c r="S22" s="42">
         <v>0</v>
       </c>
-      <c r="T22" s="5"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C23" s="83"/>
       <c r="E23" s="50"/>
       <c r="F23" s="7"/>
@@ -15049,9 +14989,8 @@
       <c r="S23" s="42">
         <v>0</v>
       </c>
-      <c r="T23" s="5"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C24" s="83"/>
       <c r="E24" s="50"/>
       <c r="F24" s="7"/>
@@ -15095,9 +15034,8 @@
       <c r="S24" s="42">
         <v>0</v>
       </c>
-      <c r="T24" s="5"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C25" s="83"/>
       <c r="E25" s="50"/>
       <c r="F25" s="7"/>
@@ -15141,9 +15079,8 @@
       <c r="S25" s="42">
         <v>0</v>
       </c>
-      <c r="T25" s="5"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C26" s="83"/>
       <c r="F26" s="7"/>
       <c r="G26" s="19">
@@ -15186,9 +15123,8 @@
       <c r="S26" s="42">
         <v>0</v>
       </c>
-      <c r="T26" s="5"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C27" s="83"/>
       <c r="F27" s="7"/>
       <c r="G27" s="19">
@@ -15231,9 +15167,8 @@
       <c r="S27" s="42">
         <v>0</v>
       </c>
-      <c r="T27" s="5"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C28" s="83"/>
       <c r="F28" s="7"/>
       <c r="G28" s="19">
@@ -15276,9 +15211,8 @@
       <c r="S28" s="42">
         <v>0</v>
       </c>
-      <c r="T28" s="5"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C29" s="83"/>
       <c r="F29" s="7"/>
       <c r="G29" s="19">
@@ -15321,9 +15255,8 @@
       <c r="S29" s="42">
         <v>0</v>
       </c>
-      <c r="T29" s="5"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F30" s="7"/>
       <c r="G30" s="18"/>
       <c r="H30" s="18"/>
@@ -15338,9 +15271,8 @@
       <c r="Q30" s="18"/>
       <c r="R30" s="18"/>
       <c r="S30" s="18"/>
-      <c r="T30" s="18"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F31" s="7"/>
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
@@ -15355,9 +15287,8 @@
       <c r="Q31" s="18"/>
       <c r="R31" s="18"/>
       <c r="S31" s="18"/>
-      <c r="T31" s="18"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F32" s="7"/>
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
@@ -15372,9 +15303,8 @@
       <c r="Q32" s="18"/>
       <c r="R32" s="18"/>
       <c r="S32" s="18"/>
-      <c r="T32" s="18"/>
-    </row>
-    <row r="33" spans="6:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F33" s="7"/>
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
@@ -15389,9 +15319,8 @@
       <c r="Q33" s="18"/>
       <c r="R33" s="18"/>
       <c r="S33" s="18"/>
-      <c r="T33" s="18"/>
-    </row>
-    <row r="34" spans="6:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F34" s="7"/>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
@@ -15406,9 +15335,8 @@
       <c r="Q34" s="18"/>
       <c r="R34" s="18"/>
       <c r="S34" s="18"/>
-      <c r="T34" s="18"/>
-    </row>
-    <row r="35" spans="6:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F35" s="7"/>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
@@ -15423,9 +15351,8 @@
       <c r="Q35" s="18"/>
       <c r="R35" s="18"/>
       <c r="S35" s="18"/>
-      <c r="T35" s="18"/>
-    </row>
-    <row r="36" spans="6:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F36" s="7"/>
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
@@ -15440,7 +15367,6 @@
       <c r="Q36" s="18"/>
       <c r="R36" s="18"/>
       <c r="S36" s="18"/>
-      <c r="T36" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -15458,7 +15384,7 @@
       <formula>IF(#REF!=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G30:T36">
+  <conditionalFormatting sqref="G30:S36">
     <cfRule type="expression" dxfId="559" priority="1">
       <formula>IF($A30="Esforço total atribuído",1)</formula>
     </cfRule>
@@ -15472,7 +15398,7 @@
       <formula>IF($B30=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:T29 B16:B28 A29:B29">
+  <conditionalFormatting sqref="H5:S29 B16:B28 A29:B29">
     <cfRule type="expression" dxfId="555" priority="73">
       <formula>IF($A5="Esforço total atribuído",1)</formula>
     </cfRule>
@@ -15496,11 +15422,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C256CC1-6492-4F11-9135-D44C3C3E8DDE}">
-  <dimension ref="A1:AB53"/>
+  <dimension ref="A1:AA53"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
+      <selection pane="bottomLeft" activeCell="AB1" sqref="AB1:AB1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15517,7 +15443,7 @@
     <col min="12" max="27" width="11.5703125" style="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15599,11 +15525,8 @@
       <c r="AA1" s="65" t="s">
         <v>237</v>
       </c>
-      <c r="AB1" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -15691,9 +15614,8 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="AB2" s="4"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -15761,9 +15683,8 @@
       <c r="AA3" s="66">
         <v>120</v>
       </c>
-      <c r="AB3" s="13"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
@@ -15856,9 +15777,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB4" s="4"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>99</v>
       </c>
@@ -15939,9 +15859,8 @@
       <c r="AA5" s="42">
         <v>0</v>
       </c>
-      <c r="AB5" s="4"/>
-    </row>
-    <row r="6" spans="1:28" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:27" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>47</v>
       </c>
@@ -16016,9 +15935,8 @@
       <c r="Y6" s="18"/>
       <c r="Z6" s="18"/>
       <c r="AA6" s="18"/>
-      <c r="AB6" s="1"/>
-    </row>
-    <row r="7" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
@@ -16090,9 +16008,8 @@
       <c r="Y7" s="16"/>
       <c r="Z7" s="16"/>
       <c r="AA7" s="16"/>
-      <c r="AB7" s="1"/>
-    </row>
-    <row r="8" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -16164,9 +16081,8 @@
       <c r="Y8" s="16"/>
       <c r="Z8" s="16"/>
       <c r="AA8" s="16"/>
-      <c r="AB8" s="1"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>244</v>
       </c>
@@ -16238,9 +16154,8 @@
       <c r="AA9" s="16">
         <v>0</v>
       </c>
-      <c r="AB9" s="1"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>101</v>
       </c>
@@ -16316,9 +16231,8 @@
       <c r="AA10" s="16">
         <v>0</v>
       </c>
-      <c r="AB10" s="1"/>
-    </row>
-    <row r="11" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
@@ -16390,9 +16304,8 @@
       <c r="Y11" s="16"/>
       <c r="Z11" s="16"/>
       <c r="AA11" s="16"/>
-      <c r="AB11" s="1"/>
-    </row>
-    <row r="12" spans="1:28" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:27" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -16464,9 +16377,8 @@
       <c r="Y12" s="16"/>
       <c r="Z12" s="16"/>
       <c r="AA12" s="16"/>
-      <c r="AB12" s="1"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>129</v>
       </c>
@@ -16547,9 +16459,8 @@
       <c r="AA13" s="42">
         <v>0</v>
       </c>
-      <c r="AB13" s="1"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>130</v>
       </c>
@@ -16630,9 +16541,8 @@
       <c r="AA14" s="42">
         <v>0</v>
       </c>
-      <c r="AB14" s="1"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>131</v>
       </c>
@@ -16713,9 +16623,8 @@
       <c r="AA15" s="42">
         <v>0</v>
       </c>
-      <c r="AB15" s="1"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>161</v>
       </c>
@@ -16793,9 +16702,8 @@
       <c r="AA16" s="42">
         <v>0</v>
       </c>
-      <c r="AB16" s="1"/>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>210</v>
       </c>
@@ -16874,9 +16782,8 @@
       <c r="AA17" s="42">
         <v>0</v>
       </c>
-      <c r="AB17" s="1"/>
-    </row>
-    <row r="18" spans="1:28" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:27" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -16951,9 +16858,8 @@
       <c r="Y18" s="16"/>
       <c r="Z18" s="16"/>
       <c r="AA18" s="16"/>
-      <c r="AB18" s="1"/>
-    </row>
-    <row r="19" spans="1:28" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:27" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -17023,9 +16929,8 @@
       <c r="Y19" s="16"/>
       <c r="Z19" s="16"/>
       <c r="AA19" s="16"/>
-      <c r="AB19" s="1"/>
-    </row>
-    <row r="20" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
@@ -17098,9 +17003,8 @@
       <c r="Y20" s="16"/>
       <c r="Z20" s="16"/>
       <c r="AA20" s="16"/>
-      <c r="AB20" s="1"/>
-    </row>
-    <row r="21" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>37</v>
       </c>
@@ -17170,9 +17074,8 @@
       <c r="Y21" s="16"/>
       <c r="Z21" s="16"/>
       <c r="AA21" s="16"/>
-      <c r="AB21" s="18"/>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="38" t="s">
         <v>224</v>
       </c>
@@ -17246,9 +17149,8 @@
       <c r="AA22" s="42">
         <v>0</v>
       </c>
-      <c r="AB22" s="1"/>
-    </row>
-    <row r="23" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>39</v>
       </c>
@@ -17318,9 +17220,8 @@
       <c r="Y23" s="16"/>
       <c r="Z23" s="16"/>
       <c r="AA23" s="16"/>
-      <c r="AB23" s="1"/>
-    </row>
-    <row r="24" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>43</v>
       </c>
@@ -17390,9 +17291,8 @@
       <c r="Y24" s="42"/>
       <c r="Z24" s="42"/>
       <c r="AA24" s="42"/>
-      <c r="AB24" s="1"/>
-    </row>
-    <row r="25" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>204</v>
       </c>
@@ -17466,9 +17366,8 @@
       <c r="AA25" s="16">
         <v>0</v>
       </c>
-      <c r="AB25" s="1"/>
-    </row>
-    <row r="26" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>135</v>
       </c>
@@ -17535,9 +17434,8 @@
       <c r="Y26" s="16"/>
       <c r="Z26" s="16"/>
       <c r="AA26" s="16"/>
-      <c r="AB26" s="1"/>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>44</v>
       </c>
@@ -17617,9 +17515,8 @@
       <c r="AA27" s="42">
         <v>0</v>
       </c>
-      <c r="AB27" s="1"/>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="38" t="s">
         <v>74</v>
       </c>
@@ -17699,9 +17596,8 @@
       <c r="AA28" s="42">
         <v>0</v>
       </c>
-      <c r="AB28" s="1"/>
-    </row>
-    <row r="29" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>46</v>
       </c>
@@ -17784,9 +17680,8 @@
       <c r="AA29" s="16">
         <v>0</v>
       </c>
-      <c r="AB29" s="1"/>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>78</v>
       </c>
@@ -17867,7 +17762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="38" t="s">
         <v>206</v>
       </c>
@@ -17948,7 +17843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="37" t="s">
         <v>98</v>
       </c>
@@ -18029,7 +17924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>326</v>
       </c>
@@ -18101,9 +17996,8 @@
       <c r="AA33" s="42">
         <v>0</v>
       </c>
-      <c r="AB33" s="1"/>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="38" t="s">
         <v>138</v>
       </c>
@@ -18187,7 +18081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>251</v>
       </c>
@@ -18261,9 +18155,8 @@
       <c r="AA35" s="42">
         <v>0</v>
       </c>
-      <c r="AB35" s="1"/>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G36" s="7">
         <f>SUM(Tabela14567[[#This Row],[mai/24]:[dez/25]])</f>
         <v>0</v>
@@ -18288,9 +18181,8 @@
       <c r="Y36" s="16"/>
       <c r="Z36" s="16"/>
       <c r="AA36" s="16"/>
-      <c r="AB36" s="1"/>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G37" s="7">
         <f>SUM(Tabela14567[[#This Row],[mai/24]:[dez/25]])</f>
         <v>0</v>
@@ -18315,9 +18207,8 @@
       <c r="Y37" s="16"/>
       <c r="Z37" s="16"/>
       <c r="AA37" s="16"/>
-      <c r="AB37" s="1"/>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G38" s="7">
         <f>SUM(Tabela14567[[#This Row],[mai/24]:[dez/25]])</f>
         <v>0</v>
@@ -18342,9 +18233,8 @@
       <c r="Y38" s="16"/>
       <c r="Z38" s="16"/>
       <c r="AA38" s="16"/>
-      <c r="AB38" s="1"/>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="H39" s="30"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
@@ -18365,9 +18255,8 @@
       <c r="Y39" s="16"/>
       <c r="Z39" s="16"/>
       <c r="AA39" s="16"/>
-      <c r="AB39" s="1"/>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="H40" s="30"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
@@ -18388,9 +18277,8 @@
       <c r="Y40" s="16"/>
       <c r="Z40" s="16"/>
       <c r="AA40" s="16"/>
-      <c r="AB40" s="1"/>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="H41" s="30"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
@@ -18411,9 +18299,8 @@
       <c r="Y41" s="16"/>
       <c r="Z41" s="16"/>
       <c r="AA41" s="16"/>
-      <c r="AB41" s="1"/>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="H42" s="30"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
@@ -18434,9 +18321,8 @@
       <c r="Y42" s="16"/>
       <c r="Z42" s="16"/>
       <c r="AA42" s="16"/>
-      <c r="AB42" s="1"/>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="H43" s="30"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
@@ -18457,9 +18343,8 @@
       <c r="Y43" s="16"/>
       <c r="Z43" s="16"/>
       <c r="AA43" s="16"/>
-      <c r="AB43" s="1"/>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="H44" s="30"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
@@ -18480,9 +18365,8 @@
       <c r="Y44" s="16"/>
       <c r="Z44" s="16"/>
       <c r="AA44" s="16"/>
-      <c r="AB44" s="1"/>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="H45" s="30"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
@@ -18503,9 +18387,8 @@
       <c r="Y45" s="16"/>
       <c r="Z45" s="16"/>
       <c r="AA45" s="16"/>
-      <c r="AB45" s="1"/>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="H46" s="30"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
@@ -18526,9 +18409,8 @@
       <c r="Y46" s="16"/>
       <c r="Z46" s="16"/>
       <c r="AA46" s="16"/>
-      <c r="AB46" s="1"/>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="H47" s="30"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
@@ -18549,9 +18431,8 @@
       <c r="Y47" s="16"/>
       <c r="Z47" s="16"/>
       <c r="AA47" s="16"/>
-      <c r="AB47" s="1"/>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="H48" s="30"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
@@ -18572,9 +18453,8 @@
       <c r="Y48" s="16"/>
       <c r="Z48" s="16"/>
       <c r="AA48" s="16"/>
-      <c r="AB48" s="1"/>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="H49" s="30"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
@@ -18595,9 +18475,8 @@
       <c r="Y49" s="16"/>
       <c r="Z49" s="16"/>
       <c r="AA49" s="16"/>
-      <c r="AB49" s="1"/>
-    </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="H50" s="30">
         <v>8</v>
       </c>
@@ -18624,9 +18503,8 @@
       <c r="Y50" s="16"/>
       <c r="Z50" s="16"/>
       <c r="AA50" s="16"/>
-      <c r="AB50" s="1"/>
-    </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="H51" s="30"/>
       <c r="I51" s="28"/>
       <c r="J51" s="18">
@@ -18649,9 +18527,8 @@
       <c r="Y51" s="42"/>
       <c r="Z51" s="42"/>
       <c r="AA51" s="42"/>
-      <c r="AB51" s="5"/>
-    </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" s="15"/>
       <c r="H52" s="25">
         <v>0</v>
@@ -18679,9 +18556,8 @@
       <c r="Y52" s="16"/>
       <c r="Z52" s="16"/>
       <c r="AA52" s="16"/>
-      <c r="AB52" s="18"/>
-    </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="H53" s="25">
         <v>0</v>
       </c>
@@ -18708,7 +18584,6 @@
       <c r="Y53" s="16"/>
       <c r="Z53" s="16"/>
       <c r="AA53" s="16"/>
-      <c r="AB53" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -18768,7 +18643,7 @@
       <formula>IF(#REF!=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51:I51 AB51 H52:AB53">
+  <conditionalFormatting sqref="H51:I51 H52:AA53">
     <cfRule type="expression" dxfId="535" priority="121">
       <formula>IF($A51="Esforço total atribuído",1)</formula>
     </cfRule>
@@ -18852,7 +18727,7 @@
       <formula>IF($B23=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:AA8 H9:N9 P9:AA9 N10 P10:V10 H10:M12 W10:AA12 N11:V12 P13:AA16 K17:V17 H18:V18 X18:AA18 A18:A19 H19:AA20 A21 H21:AB21 K22:V22 A23 P23:AA24 L25:AA26 P27:V28 P29:AA29 M30:N31 H35:J36 T36:AA36 H37:AA50 P51:AA51">
+  <conditionalFormatting sqref="H6:AA8 H9:N9 P9:AA9 N10 P10:V10 H10:M12 W10:AA12 N11:V12 P13:AA16 K17:V17 H18:V18 X18:AA18 A18:A19 A21 H19:AA21 K22:V22 A23 P23:AA24 L25:AA26 P27:V28 P29:AA29 M30:N31 H35:J36 T36:AA36 H37:AA50 P51:AA51">
     <cfRule type="expression" dxfId="511" priority="177">
       <formula>IF($A6="Esforço total atribuído",1)</formula>
     </cfRule>
@@ -19048,11 +18923,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A27F0AE7-2463-4B85-8E40-2B48DFA9F979}">
-  <dimension ref="A1:AB60"/>
+  <dimension ref="A1:AA60"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
+      <selection pane="bottomLeft" activeCell="AB1" sqref="AB1:AB1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19069,7 +18944,7 @@
     <col min="12" max="27" width="11.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19151,11 +19026,8 @@
       <c r="AA1" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="AB1" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -19244,9 +19116,8 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="AB2" s="4"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -19315,9 +19186,8 @@
       <c r="AA3" s="66">
         <v>120</v>
       </c>
-      <c r="AB3" s="13"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
@@ -19410,9 +19280,8 @@
         <f>SUM(AA5:AA59)</f>
         <v>0</v>
       </c>
-      <c r="AB4" s="4"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>99</v>
       </c>
@@ -19492,9 +19361,8 @@
       <c r="AA5" s="92">
         <v>0</v>
       </c>
-      <c r="AB5" s="4"/>
-    </row>
-    <row r="6" spans="1:28" s="29" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:27" s="29" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>48</v>
       </c>
@@ -19565,9 +19433,8 @@
       <c r="Y6" s="93"/>
       <c r="Z6" s="93"/>
       <c r="AA6" s="93"/>
-      <c r="AB6" s="26"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
@@ -19647,9 +19514,8 @@
       <c r="AA7" s="92">
         <v>0</v>
       </c>
-      <c r="AB7" s="1"/>
-    </row>
-    <row r="8" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>212</v>
       </c>
@@ -19723,9 +19589,8 @@
       <c r="AA8" s="92">
         <v>0</v>
       </c>
-      <c r="AB8" s="1"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
@@ -19805,9 +19670,8 @@
       <c r="AA9" s="92">
         <v>0</v>
       </c>
-      <c r="AB9" s="1"/>
-    </row>
-    <row r="10" spans="1:28" s="29" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:27" s="29" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>152</v>
       </c>
@@ -19878,9 +19742,8 @@
       <c r="Y10" s="93"/>
       <c r="Z10" s="93"/>
       <c r="AA10" s="93"/>
-      <c r="AB10" s="26"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>215</v>
       </c>
@@ -19954,9 +19817,8 @@
       <c r="AA11" s="92">
         <v>0</v>
       </c>
-      <c r="AB11" s="1"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>52</v>
       </c>
@@ -20036,9 +19898,8 @@
       <c r="AA12" s="92">
         <v>0</v>
       </c>
-      <c r="AB12" s="1"/>
-    </row>
-    <row r="13" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
@@ -20110,9 +19971,8 @@
       <c r="Y13" s="92"/>
       <c r="Z13" s="92"/>
       <c r="AA13" s="92"/>
-      <c r="AB13" s="1"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>54</v>
       </c>
@@ -20192,9 +20052,8 @@
       <c r="AA14" s="92">
         <v>0</v>
       </c>
-      <c r="AB14" s="1"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>55</v>
       </c>
@@ -20274,9 +20133,8 @@
       <c r="AA15" s="92">
         <v>0</v>
       </c>
-      <c r="AB15" s="1"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>56</v>
       </c>
@@ -20356,9 +20214,8 @@
       <c r="AA16" s="92">
         <v>0</v>
       </c>
-      <c r="AB16" s="1"/>
-    </row>
-    <row r="17" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>151</v>
       </c>
@@ -20433,9 +20290,8 @@
       <c r="Y17" s="92"/>
       <c r="Z17" s="92"/>
       <c r="AA17" s="92"/>
-      <c r="AB17" s="1"/>
-    </row>
-    <row r="18" spans="1:28" s="29" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:27" s="29" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>153</v>
       </c>
@@ -20508,9 +20364,8 @@
       <c r="Y18" s="93"/>
       <c r="Z18" s="93"/>
       <c r="AA18" s="93"/>
-      <c r="AB18" s="26"/>
-    </row>
-    <row r="19" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>155</v>
       </c>
@@ -20590,9 +20445,8 @@
       <c r="AA19" s="92">
         <v>0</v>
       </c>
-      <c r="AB19" s="1"/>
-    </row>
-    <row r="20" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>156</v>
       </c>
@@ -20675,9 +20529,8 @@
       <c r="AA20" s="92">
         <v>0</v>
       </c>
-      <c r="AB20" s="1"/>
-    </row>
-    <row r="21" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>199</v>
       </c>
@@ -20751,9 +20604,8 @@
       <c r="AA21" s="92">
         <v>0</v>
       </c>
-      <c r="AB21" s="1"/>
-    </row>
-    <row r="22" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>158</v>
       </c>
@@ -20833,9 +20685,8 @@
       <c r="AA22" s="92">
         <v>0</v>
       </c>
-      <c r="AB22" s="1"/>
-    </row>
-    <row r="23" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>214</v>
       </c>
@@ -20915,9 +20766,8 @@
       <c r="AA23" s="92">
         <v>0</v>
       </c>
-      <c r="AB23" s="1"/>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>171</v>
       </c>
@@ -20991,9 +20841,8 @@
       <c r="AA24" s="92">
         <v>0</v>
       </c>
-      <c r="AB24" s="1"/>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>211</v>
       </c>
@@ -21067,9 +20916,8 @@
       <c r="AA25" s="92">
         <v>0</v>
       </c>
-      <c r="AB25" s="1"/>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>58</v>
       </c>
@@ -21149,9 +20997,8 @@
       <c r="AA26" s="92">
         <v>0</v>
       </c>
-      <c r="AB26" s="1"/>
-    </row>
-    <row r="27" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>124</v>
       </c>
@@ -21223,9 +21070,8 @@
       <c r="Y27" s="92"/>
       <c r="Z27" s="92"/>
       <c r="AA27" s="92"/>
-      <c r="AB27" s="1"/>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>227</v>
       </c>
@@ -21302,9 +21148,8 @@
       <c r="AA28" s="92">
         <v>0</v>
       </c>
-      <c r="AB28" s="1"/>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>139</v>
       </c>
@@ -21384,9 +21229,8 @@
       <c r="AA29" s="92">
         <v>0</v>
       </c>
-      <c r="AB29" s="1"/>
-    </row>
-    <row r="30" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>140</v>
       </c>
@@ -21466,9 +21310,8 @@
       <c r="AA30" s="92">
         <v>0</v>
       </c>
-      <c r="AB30" s="1"/>
-    </row>
-    <row r="31" spans="1:28" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:27" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -21540,9 +21383,8 @@
       <c r="Y31" s="92"/>
       <c r="Z31" s="92"/>
       <c r="AA31" s="92"/>
-      <c r="AB31" s="1"/>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>159</v>
       </c>
@@ -21620,9 +21462,8 @@
       <c r="AA32" s="92">
         <v>0</v>
       </c>
-      <c r="AB32" s="1"/>
-    </row>
-    <row r="33" spans="1:28" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:27" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -21696,9 +21537,8 @@
       <c r="AA33" s="92">
         <v>0</v>
       </c>
-      <c r="AB33" s="1"/>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>179</v>
       </c>
@@ -21771,9 +21611,8 @@
       <c r="AA34" s="16">
         <v>0</v>
       </c>
-      <c r="AB34" s="58"/>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>213</v>
       </c>
@@ -21850,9 +21689,8 @@
       <c r="AA35" s="92">
         <v>0</v>
       </c>
-      <c r="AB35" s="1"/>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>64</v>
       </c>
@@ -21935,9 +21773,8 @@
       <c r="AA36" s="92">
         <v>0</v>
       </c>
-      <c r="AB36" s="1"/>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>43</v>
       </c>
@@ -22017,9 +21854,8 @@
       <c r="AA37" s="92">
         <v>0</v>
       </c>
-      <c r="AB37" s="1"/>
-    </row>
-    <row r="38" spans="1:28" s="29" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:27" s="29" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
         <v>44</v>
       </c>
@@ -22090,9 +21926,8 @@
       <c r="Y38" s="93"/>
       <c r="Z38" s="93"/>
       <c r="AA38" s="93"/>
-      <c r="AB38" s="26"/>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>74</v>
       </c>
@@ -22172,9 +22007,8 @@
       <c r="AA39" s="92">
         <v>0</v>
       </c>
-      <c r="AB39" s="1"/>
-    </row>
-    <row r="40" spans="1:28" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:27" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="32" t="s">
         <v>69</v>
       </c>
@@ -22243,9 +22077,8 @@
       <c r="Y40" s="94"/>
       <c r="Z40" s="94"/>
       <c r="AA40" s="94"/>
-      <c r="AB40" s="33"/>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>70</v>
       </c>
@@ -22325,9 +22158,8 @@
       <c r="AA41" s="92">
         <v>0</v>
       </c>
-      <c r="AB41" s="1"/>
-    </row>
-    <row r="42" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>51</v>
       </c>
@@ -22410,9 +22242,8 @@
       <c r="AA42" s="92">
         <v>0</v>
       </c>
-      <c r="AB42" s="1"/>
-    </row>
-    <row r="43" spans="1:28" s="29" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:27" s="29" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="26" t="s">
         <v>57</v>
       </c>
@@ -22483,9 +22314,8 @@
       <c r="Y43" s="93"/>
       <c r="Z43" s="93"/>
       <c r="AA43" s="93"/>
-      <c r="AB43" s="26"/>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>76</v>
       </c>
@@ -22565,9 +22395,8 @@
       <c r="AA44" s="92">
         <v>0</v>
       </c>
-      <c r="AB44" s="1"/>
-    </row>
-    <row r="45" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>59</v>
       </c>
@@ -22647,9 +22476,8 @@
       <c r="AA45" s="92">
         <v>0</v>
       </c>
-      <c r="AB45" s="1"/>
-    </row>
-    <row r="46" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>65</v>
       </c>
@@ -22719,9 +22547,8 @@
       <c r="Y46" s="92"/>
       <c r="Z46" s="92"/>
       <c r="AA46" s="92"/>
-      <c r="AB46" s="1"/>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>205</v>
       </c>
@@ -22797,9 +22624,8 @@
       <c r="AA47" s="92">
         <v>0</v>
       </c>
-      <c r="AB47" s="1"/>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>73</v>
       </c>
@@ -22879,9 +22705,8 @@
       <c r="AA48" s="92">
         <v>0</v>
       </c>
-      <c r="AB48" s="1"/>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>33</v>
       </c>
@@ -22955,9 +22780,8 @@
       <c r="AA49" s="92">
         <v>0</v>
       </c>
-      <c r="AB49" s="1"/>
-    </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>57</v>
       </c>
@@ -23034,9 +22858,8 @@
       <c r="AA50" s="92">
         <v>0</v>
       </c>
-      <c r="AB50" s="1"/>
-    </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>327</v>
       </c>
@@ -23107,9 +22930,8 @@
       <c r="AA51" s="92">
         <v>0</v>
       </c>
-      <c r="AB51" s="1"/>
-    </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>229</v>
       </c>
@@ -23142,9 +22964,8 @@
       <c r="Y52" s="14"/>
       <c r="Z52" s="14"/>
       <c r="AA52" s="14"/>
-      <c r="AB52" s="1"/>
-    </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D53" s="53"/>
       <c r="G53" s="7">
         <f>SUM(Tabela145[[#This Row],[ago/24]:[dez/25]])</f>
@@ -23170,9 +22991,8 @@
       <c r="Y53" s="16"/>
       <c r="Z53" s="16"/>
       <c r="AA53" s="16"/>
-      <c r="AB53" s="1"/>
-    </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D54" s="53"/>
       <c r="G54" s="7"/>
       <c r="H54" s="14"/>
@@ -23195,9 +23015,8 @@
       <c r="Y54" s="16"/>
       <c r="Z54" s="16"/>
       <c r="AA54" s="16"/>
-      <c r="AB54" s="1"/>
-    </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D55" s="53"/>
       <c r="G55" s="7"/>
       <c r="H55" s="14"/>
@@ -23220,9 +23039,8 @@
       <c r="Y55" s="14"/>
       <c r="Z55" s="14"/>
       <c r="AA55" s="14"/>
-      <c r="AB55" s="1"/>
-    </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D56" s="53"/>
       <c r="G56" s="7"/>
       <c r="H56" s="14"/>
@@ -23245,9 +23063,8 @@
       <c r="Y56" s="14"/>
       <c r="Z56" s="14"/>
       <c r="AA56" s="14"/>
-      <c r="AB56" s="1"/>
-    </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B57" s="8"/>
       <c r="C57" s="17"/>
       <c r="D57" s="53"/>
@@ -23272,9 +23089,8 @@
       <c r="Y57" s="14"/>
       <c r="Z57" s="14"/>
       <c r="AA57" s="14"/>
-      <c r="AB57" s="1"/>
-    </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B58" s="8"/>
       <c r="D58" s="53"/>
       <c r="G58" s="7"/>
@@ -23298,9 +23114,8 @@
       <c r="Y58" s="14"/>
       <c r="Z58" s="14"/>
       <c r="AA58" s="14"/>
-      <c r="AB58" s="1"/>
-    </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B59" s="8"/>
       <c r="D59" s="53"/>
       <c r="G59" s="7"/>
@@ -23324,9 +23139,8 @@
       <c r="Y59" s="14"/>
       <c r="Z59" s="14"/>
       <c r="AA59" s="14"/>
-      <c r="AB59" s="1"/>
-    </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -23684,11 +23498,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D1642F-A432-4F73-88F1-88DC617F1C3F}">
-  <dimension ref="A1:AB56"/>
+  <dimension ref="A1:AA56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y55" sqref="Y55"/>
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB1" sqref="AB1:AB1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23706,7 +23520,7 @@
     <col min="12" max="27" width="11.5703125" style="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="74" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23788,11 +23602,8 @@
       <c r="AA1" s="63" t="s">
         <v>237</v>
       </c>
-      <c r="AB1" s="65" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -23880,9 +23691,8 @@
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="AB2" s="4"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -23950,9 +23760,8 @@
       <c r="AA3" s="64">
         <v>120</v>
       </c>
-      <c r="AB3" s="13"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
@@ -24045,9 +23854,8 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="AB4" s="4"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>99</v>
       </c>
@@ -24128,9 +23936,8 @@
       <c r="AA5" s="56">
         <v>27</v>
       </c>
-      <c r="AB5" s="4"/>
-    </row>
-    <row r="6" spans="1:28" ht="210" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:27" ht="210" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>243</v>
       </c>
@@ -24213,9 +24020,8 @@
       <c r="AA6" s="42">
         <v>0</v>
       </c>
-      <c r="AB6" s="58"/>
-    </row>
-    <row r="7" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -24298,9 +24104,8 @@
       <c r="AA7" s="42">
         <v>0</v>
       </c>
-      <c r="AB7" s="58"/>
-    </row>
-    <row r="8" spans="1:28" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:27" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>193</v>
       </c>
@@ -24380,9 +24185,8 @@
       <c r="AA8" s="42">
         <v>0</v>
       </c>
-      <c r="AB8" s="58"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>186</v>
       </c>
@@ -24465,9 +24269,8 @@
       <c r="AA9" s="42">
         <v>0</v>
       </c>
-      <c r="AB9" s="58"/>
-    </row>
-    <row r="10" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>106</v>
       </c>
@@ -24547,9 +24350,8 @@
       <c r="AA10" s="42">
         <v>0</v>
       </c>
-      <c r="AB10" s="58"/>
-    </row>
-    <row r="11" spans="1:28" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:27" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>107</v>
       </c>
@@ -24629,9 +24431,8 @@
       <c r="AA11" s="42">
         <v>0</v>
       </c>
-      <c r="AB11" s="58"/>
-    </row>
-    <row r="12" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>166</v>
       </c>
@@ -24711,9 +24512,8 @@
       <c r="AA12" s="42">
         <v>0</v>
       </c>
-      <c r="AB12" s="58"/>
-    </row>
-    <row r="13" spans="1:28" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:27" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -24796,9 +24596,8 @@
       <c r="AA13" s="42">
         <v>0</v>
       </c>
-      <c r="AB13" s="58"/>
-    </row>
-    <row r="14" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -24881,9 +24680,8 @@
       <c r="AA14" s="42">
         <v>0</v>
       </c>
-      <c r="AB14" s="58"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>128</v>
       </c>
@@ -24963,9 +24761,8 @@
       <c r="AA15" s="42">
         <v>0</v>
       </c>
-      <c r="AB15" s="58"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>133</v>
       </c>
@@ -25045,9 +24842,8 @@
       <c r="AA16" s="42">
         <v>0</v>
       </c>
-      <c r="AB16" s="58"/>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>134</v>
       </c>
@@ -25127,9 +24923,8 @@
       <c r="AA17" s="42">
         <v>0</v>
       </c>
-      <c r="AB17" s="58"/>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>218</v>
       </c>
@@ -25204,9 +24999,8 @@
       <c r="AA18" s="42">
         <v>0</v>
       </c>
-      <c r="AB18" s="58"/>
-    </row>
-    <row r="19" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>135</v>
       </c>
@@ -25289,9 +25083,8 @@
       <c r="AA19" s="42">
         <v>0</v>
       </c>
-      <c r="AB19" s="58"/>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>136</v>
       </c>
@@ -25367,9 +25160,8 @@
       <c r="AA20" s="42">
         <v>0</v>
       </c>
-      <c r="AB20" s="58"/>
-    </row>
-    <row r="21" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>185</v>
       </c>
@@ -25450,9 +25242,8 @@
       <c r="AA21" s="42">
         <v>0</v>
       </c>
-      <c r="AB21" s="58"/>
-    </row>
-    <row r="22" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>164</v>
       </c>
@@ -25517,9 +25308,8 @@
       <c r="Y22" s="42"/>
       <c r="Z22" s="42"/>
       <c r="AA22" s="42"/>
-      <c r="AB22" s="58"/>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>168</v>
       </c>
@@ -25597,9 +25387,8 @@
       <c r="AA23" s="42">
         <v>0</v>
       </c>
-      <c r="AB23" s="58"/>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>162</v>
       </c>
@@ -25680,9 +25469,8 @@
       <c r="AA24" s="42">
         <v>0</v>
       </c>
-      <c r="AB24" s="58"/>
-    </row>
-    <row r="25" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>167</v>
       </c>
@@ -25750,9 +25538,8 @@
       <c r="Y25" s="42"/>
       <c r="Z25" s="42"/>
       <c r="AA25" s="42"/>
-      <c r="AB25" s="58"/>
-    </row>
-    <row r="26" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>165</v>
       </c>
@@ -25794,9 +25581,8 @@
       <c r="Y26" s="42"/>
       <c r="Z26" s="42"/>
       <c r="AA26" s="42"/>
-      <c r="AB26" s="58"/>
-    </row>
-    <row r="27" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>169</v>
       </c>
@@ -25864,9 +25650,8 @@
       <c r="Y27" s="42"/>
       <c r="Z27" s="42"/>
       <c r="AA27" s="42"/>
-      <c r="AB27" s="58"/>
-    </row>
-    <row r="28" spans="1:28" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:27" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>194</v>
       </c>
@@ -25945,9 +25730,8 @@
       <c r="AA28" s="42">
         <v>0</v>
       </c>
-      <c r="AB28" s="58"/>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>192</v>
       </c>
@@ -26026,9 +25810,8 @@
       <c r="AA29" s="42">
         <v>0</v>
       </c>
-      <c r="AB29" s="58"/>
-    </row>
-    <row r="30" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>170</v>
       </c>
@@ -26109,9 +25892,8 @@
       <c r="AA30" s="42">
         <v>0</v>
       </c>
-      <c r="AB30" s="58"/>
-    </row>
-    <row r="31" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -26181,9 +25963,8 @@
       <c r="Y31" s="42"/>
       <c r="Z31" s="42"/>
       <c r="AA31" s="42"/>
-      <c r="AB31" s="58"/>
-    </row>
-    <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>171</v>
       </c>
@@ -26259,9 +26040,8 @@
       <c r="AA32" s="42">
         <v>0</v>
       </c>
-      <c r="AB32" s="58"/>
-    </row>
-    <row r="33" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>231</v>
       </c>
@@ -26335,9 +26115,8 @@
       <c r="AA33" s="42">
         <v>0</v>
       </c>
-      <c r="AB33" s="58"/>
-    </row>
-    <row r="34" spans="1:28" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:27" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>173</v>
       </c>
@@ -26416,9 +26195,8 @@
       <c r="AA34" s="42">
         <v>0</v>
       </c>
-      <c r="AB34" s="58"/>
-    </row>
-    <row r="35" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>190</v>
       </c>
@@ -26484,9 +26262,8 @@
       <c r="Y35" s="42"/>
       <c r="Z35" s="42"/>
       <c r="AA35" s="42"/>
-      <c r="AB35" s="58"/>
-    </row>
-    <row r="36" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>204</v>
       </c>
@@ -26562,9 +26339,8 @@
       <c r="AA36" s="42">
         <v>0</v>
       </c>
-      <c r="AB36" s="58"/>
-    </row>
-    <row r="37" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>219</v>
       </c>
@@ -26641,9 +26417,8 @@
       <c r="AA37" s="42">
         <v>0</v>
       </c>
-      <c r="AB37" s="58"/>
-    </row>
-    <row r="38" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>238</v>
       </c>
@@ -26717,9 +26492,8 @@
       <c r="AA38" s="42">
         <v>0</v>
       </c>
-      <c r="AB38" s="58"/>
-    </row>
-    <row r="39" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>70</v>
       </c>
@@ -26787,9 +26561,8 @@
       <c r="Y39" s="59"/>
       <c r="Z39" s="59"/>
       <c r="AA39" s="59"/>
-      <c r="AB39" s="59"/>
-    </row>
-    <row r="40" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>33</v>
       </c>
@@ -26872,9 +26645,8 @@
       <c r="AA40" s="42">
         <v>0</v>
       </c>
-      <c r="AB40" s="58"/>
-    </row>
-    <row r="41" spans="1:28" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:27" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>34</v>
       </c>
@@ -26947,9 +26719,8 @@
       <c r="Y41" s="42"/>
       <c r="Z41" s="42"/>
       <c r="AA41" s="42"/>
-      <c r="AB41" s="58"/>
-    </row>
-    <row r="42" spans="1:28" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:27" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>35</v>
       </c>
@@ -27033,9 +26804,8 @@
       <c r="AA42" s="42">
         <v>0</v>
       </c>
-      <c r="AB42" s="58"/>
-    </row>
-    <row r="43" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="77" t="s">
         <v>69</v>
       </c>
@@ -27105,9 +26875,8 @@
       <c r="Y43" s="42"/>
       <c r="Z43" s="42"/>
       <c r="AA43" s="42"/>
-      <c r="AB43" s="1"/>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>46</v>
       </c>
@@ -27190,9 +26959,8 @@
       <c r="AA44" s="16">
         <v>0</v>
       </c>
-      <c r="AB44" s="59"/>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
@@ -27275,9 +27043,8 @@
       <c r="AA45" s="42">
         <v>0</v>
       </c>
-      <c r="AB45" s="59"/>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>126</v>
       </c>
@@ -27353,9 +27120,8 @@
       <c r="AA46" s="42">
         <v>0</v>
       </c>
-      <c r="AB46" s="58"/>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>320</v>
       </c>
@@ -27434,9 +27200,8 @@
       <c r="AA47" s="42">
         <v>0</v>
       </c>
-      <c r="AB47" s="1"/>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>329</v>
       </c>
@@ -27515,9 +27280,8 @@
       <c r="AA48" s="42">
         <v>0</v>
       </c>
-      <c r="AB48" s="1"/>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>330</v>
       </c>
@@ -27588,9 +27352,8 @@
       <c r="AA49" s="42">
         <v>0</v>
       </c>
-      <c r="AB49" s="1"/>
-    </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>331</v>
       </c>
@@ -27661,13 +27424,12 @@
       <c r="AA50" s="42">
         <v>0</v>
       </c>
-      <c r="AB50" s="1"/>
-    </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A51" s="99" t="s">
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B51" s="99" t="s">
+      <c r="B51" s="1" t="s">
         <v>344</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -27679,7 +27441,7 @@
       <c r="E51" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G51" s="100">
+      <c r="G51" s="7">
         <f>SUM(Tabela14[[#This Row],[mai/24]:[dez/25]])</f>
         <v>20</v>
       </c>
@@ -27737,9 +27499,8 @@
       <c r="AA51" s="42">
         <v>0</v>
       </c>
-      <c r="AB51" s="1"/>
-    </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>332</v>
       </c>
@@ -27810,9 +27571,8 @@
       <c r="AA52" s="42">
         <v>0</v>
       </c>
-      <c r="AB52" s="1"/>
-    </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>333</v>
       </c>
@@ -27883,9 +27643,8 @@
       <c r="AA53" s="42">
         <v>0</v>
       </c>
-      <c r="AB53" s="1"/>
-    </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>244</v>
       </c>
@@ -27959,9 +27718,8 @@
       <c r="AA54" s="42">
         <v>0</v>
       </c>
-      <c r="AB54" s="58"/>
-    </row>
-    <row r="55" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>105</v>
       </c>
@@ -28044,9 +27802,8 @@
       <c r="AA55" s="42">
         <v>0</v>
       </c>
-      <c r="AB55" s="58"/>
-    </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C56" s="6"/>
     </row>
   </sheetData>
@@ -28259,11 +28016,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EFB198F-52FF-42E0-B4E9-9E5A3CBDE588}">
-  <dimension ref="A1:AB25"/>
+  <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="AB1" sqref="AB1:AB1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28280,7 +28037,7 @@
     <col min="12" max="27" width="11.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -28362,11 +28119,8 @@
       <c r="AA1" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="AB1" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -28454,9 +28208,8 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="AB2" s="4"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -28524,9 +28277,8 @@
       <c r="AA3" s="60">
         <v>120</v>
       </c>
-      <c r="AB3" s="13"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
@@ -28619,9 +28371,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB4" s="4"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>99</v>
       </c>
@@ -28694,9 +28445,8 @@
       <c r="AA5" s="14">
         <v>0</v>
       </c>
-      <c r="AB5" s="4"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>60</v>
       </c>
@@ -28769,9 +28519,8 @@
       <c r="AA6" s="14">
         <v>0</v>
       </c>
-      <c r="AB6" s="1"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>61</v>
       </c>
@@ -28844,9 +28593,8 @@
       <c r="AA7" s="14">
         <v>0</v>
       </c>
-      <c r="AB7" s="1"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>62</v>
       </c>
@@ -28919,9 +28667,8 @@
       <c r="AA8" s="14">
         <v>0</v>
       </c>
-      <c r="AB8" s="1"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>63</v>
       </c>
@@ -28994,9 +28741,8 @@
       <c r="AA9" s="14">
         <v>0</v>
       </c>
-      <c r="AB9" s="1"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -29074,9 +28820,8 @@
       <c r="AA10" s="14">
         <v>0</v>
       </c>
-      <c r="AB10" s="1"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11" s="7"/>
@@ -29100,9 +28845,8 @@
       <c r="Y11" s="14"/>
       <c r="Z11" s="14"/>
       <c r="AA11" s="14"/>
-      <c r="AB11" s="1"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
       <c r="E12"/>
       <c r="F12"/>
@@ -29127,9 +28871,8 @@
       <c r="Y12" s="14"/>
       <c r="Z12" s="14"/>
       <c r="AA12" s="14"/>
-      <c r="AB12" s="1"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="D13" s="3"/>
       <c r="E13"/>
@@ -29155,9 +28898,8 @@
       <c r="Y13" s="14"/>
       <c r="Z13" s="14"/>
       <c r="AA13" s="14"/>
-      <c r="AB13" s="1"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="E14"/>
       <c r="F14"/>
@@ -29182,9 +28924,8 @@
       <c r="Y14" s="14"/>
       <c r="Z14" s="14"/>
       <c r="AA14" s="14"/>
-      <c r="AB14" s="1"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="D15" s="3"/>
       <c r="E15"/>
@@ -29210,9 +28951,8 @@
       <c r="Y15" s="14"/>
       <c r="Z15" s="14"/>
       <c r="AA15" s="14"/>
-      <c r="AB15" s="1"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="D16" s="3"/>
       <c r="E16"/>
@@ -29238,9 +28978,8 @@
       <c r="Y16" s="14"/>
       <c r="Z16" s="14"/>
       <c r="AA16" s="14"/>
-      <c r="AB16" s="1"/>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="D17" s="3"/>
       <c r="E17"/>
@@ -29266,9 +29005,8 @@
       <c r="Y17" s="14"/>
       <c r="Z17" s="14"/>
       <c r="AA17" s="14"/>
-      <c r="AB17" s="1"/>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="D18" s="3"/>
       <c r="E18"/>
@@ -29294,9 +29032,8 @@
       <c r="Y18" s="14"/>
       <c r="Z18" s="14"/>
       <c r="AA18" s="14"/>
-      <c r="AB18" s="1"/>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="D19" s="3"/>
       <c r="E19"/>
@@ -29322,9 +29059,8 @@
       <c r="Y19" s="14"/>
       <c r="Z19" s="14"/>
       <c r="AA19" s="14"/>
-      <c r="AB19" s="1"/>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C20" s="2"/>
       <c r="E20"/>
       <c r="F20"/>
@@ -29349,9 +29085,8 @@
       <c r="Y20" s="14"/>
       <c r="Z20" s="14"/>
       <c r="AA20" s="14"/>
-      <c r="AB20" s="1"/>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C21" s="2"/>
       <c r="E21"/>
       <c r="F21"/>
@@ -29376,9 +29111,8 @@
       <c r="Y21" s="14"/>
       <c r="Z21" s="14"/>
       <c r="AA21" s="14"/>
-      <c r="AB21" s="1"/>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C22" s="20"/>
       <c r="D22" s="3"/>
       <c r="E22"/>
@@ -29404,9 +29138,8 @@
       <c r="Y22" s="14"/>
       <c r="Z22" s="14"/>
       <c r="AA22" s="14"/>
-      <c r="AB22" s="1"/>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C23" s="20"/>
       <c r="E23"/>
       <c r="F23"/>
@@ -29431,9 +29164,8 @@
       <c r="Y23" s="14"/>
       <c r="Z23" s="14"/>
       <c r="AA23" s="14"/>
-      <c r="AB23" s="1"/>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D24" s="3"/>
       <c r="G24" s="7"/>
       <c r="H24" s="14"/>
@@ -29456,9 +29188,8 @@
       <c r="Y24" s="14"/>
       <c r="Z24" s="14"/>
       <c r="AA24" s="14"/>
-      <c r="AB24" s="1"/>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -29694,11 +29425,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F06AD2-49C8-4F06-AA2A-194A1ABF7E89}">
-  <dimension ref="A1:AB77"/>
+  <dimension ref="A1:AA77"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
+      <selection pane="bottomLeft" activeCell="AB1" sqref="AB1:AB1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29715,7 +29446,7 @@
     <col min="13" max="27" width="11.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -29797,11 +29528,8 @@
       <c r="AA1" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="AB1" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -29889,9 +29617,8 @@
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="AB2" s="4"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -29959,9 +29686,8 @@
       <c r="AA3" s="66">
         <v>120</v>
       </c>
-      <c r="AB3" s="13"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
@@ -30054,9 +29780,8 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="AB4" s="4"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>99</v>
       </c>
@@ -30133,9 +29858,8 @@
       <c r="AA5" s="44">
         <v>10</v>
       </c>
-      <c r="AB5" s="3"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>47</v>
       </c>
@@ -30213,9 +29937,8 @@
       <c r="AA6" s="16">
         <v>0</v>
       </c>
-      <c r="AB6" s="16"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>66</v>
       </c>
@@ -30293,9 +30016,8 @@
       <c r="AA7" s="16">
         <v>0</v>
       </c>
-      <c r="AB7" s="1"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>195</v>
       </c>
@@ -30372,9 +30094,8 @@
       <c r="AA8" s="16">
         <v>0</v>
       </c>
-      <c r="AB8" s="1"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>108</v>
       </c>
@@ -30452,9 +30173,8 @@
       <c r="AA9" s="16">
         <v>0</v>
       </c>
-      <c r="AB9" s="1"/>
-    </row>
-    <row r="10" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>109</v>
       </c>
@@ -30532,9 +30252,8 @@
       <c r="AA10" s="16">
         <v>0</v>
       </c>
-      <c r="AB10" s="1"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>110</v>
       </c>
@@ -30612,9 +30331,8 @@
       <c r="AA11" s="16">
         <v>0</v>
       </c>
-      <c r="AB11" s="1"/>
-    </row>
-    <row r="12" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>196</v>
       </c>
@@ -30683,9 +30401,8 @@
       <c r="AA12" s="16">
         <v>0</v>
       </c>
-      <c r="AB12" s="1"/>
-    </row>
-    <row r="13" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>111</v>
       </c>
@@ -30763,9 +30480,8 @@
       <c r="AA13" s="16">
         <v>0</v>
       </c>
-      <c r="AB13" s="1"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>112</v>
       </c>
@@ -30843,9 +30559,8 @@
       <c r="AA14" s="16">
         <v>0</v>
       </c>
-      <c r="AB14" s="1"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>113</v>
       </c>
@@ -30923,9 +30638,8 @@
       <c r="AA15" s="16">
         <v>0</v>
       </c>
-      <c r="AB15" s="1"/>
-    </row>
-    <row r="16" spans="1:28" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:27" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
         <v>114</v>
       </c>
@@ -30991,9 +30705,8 @@
       <c r="Y16" s="43"/>
       <c r="Z16" s="43"/>
       <c r="AA16" s="43"/>
-      <c r="AB16" s="38"/>
-    </row>
-    <row r="17" spans="1:28" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:27" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>115</v>
       </c>
@@ -31059,9 +30772,8 @@
       <c r="Y17" s="43"/>
       <c r="Z17" s="43"/>
       <c r="AA17" s="43"/>
-      <c r="AB17" s="38"/>
-    </row>
-    <row r="18" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>121</v>
       </c>
@@ -31135,9 +30847,8 @@
       <c r="AA18" s="16">
         <v>0</v>
       </c>
-      <c r="AB18" s="1"/>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>197</v>
       </c>
@@ -31211,9 +30922,8 @@
       <c r="AA19" s="16">
         <v>0</v>
       </c>
-      <c r="AB19" s="1"/>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>116</v>
       </c>
@@ -31291,9 +31001,8 @@
       <c r="AA20" s="16">
         <v>0</v>
       </c>
-      <c r="AB20" s="1"/>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>117</v>
       </c>
@@ -31371,9 +31080,8 @@
       <c r="AA21" s="16">
         <v>0</v>
       </c>
-      <c r="AB21" s="1"/>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>118</v>
       </c>
@@ -31451,9 +31159,8 @@
       <c r="AA22" s="16">
         <v>0</v>
       </c>
-      <c r="AB22" s="1"/>
-    </row>
-    <row r="23" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>119</v>
       </c>
@@ -31531,9 +31238,8 @@
       <c r="AA23" s="16">
         <v>0</v>
       </c>
-      <c r="AB23" s="1"/>
-    </row>
-    <row r="24" spans="1:28" s="29" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:27" s="29" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
         <v>120</v>
       </c>
@@ -31599,9 +31305,8 @@
       <c r="Y24" s="51"/>
       <c r="Z24" s="51"/>
       <c r="AA24" s="51"/>
-      <c r="AB24" s="26"/>
-    </row>
-    <row r="25" spans="1:28" s="29" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:27" s="29" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
         <v>122</v>
       </c>
@@ -31667,9 +31372,8 @@
       <c r="Y25" s="51"/>
       <c r="Z25" s="51"/>
       <c r="AA25" s="51"/>
-      <c r="AB25" s="26"/>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>123</v>
       </c>
@@ -31747,9 +31451,8 @@
       <c r="AA26" s="16">
         <v>0</v>
       </c>
-      <c r="AB26" s="1"/>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>207</v>
       </c>
@@ -31820,9 +31523,8 @@
       <c r="AA27" s="16">
         <v>0</v>
       </c>
-      <c r="AB27" s="1"/>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>208</v>
       </c>
@@ -31890,9 +31592,8 @@
       <c r="AA28" s="16">
         <v>0</v>
       </c>
-      <c r="AB28" s="1"/>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>42</v>
       </c>
@@ -31970,9 +31671,8 @@
       <c r="AA29" s="16">
         <v>0</v>
       </c>
-      <c r="AB29" s="1"/>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>159</v>
       </c>
@@ -32047,9 +31747,8 @@
       <c r="AA30" s="16">
         <v>0</v>
       </c>
-      <c r="AB30" s="1"/>
-    </row>
-    <row r="31" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
@@ -32115,9 +31814,8 @@
       <c r="Y31" s="16"/>
       <c r="Z31" s="16"/>
       <c r="AA31" s="16"/>
-      <c r="AB31" s="1"/>
-    </row>
-    <row r="32" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>79</v>
       </c>
@@ -32183,9 +31881,8 @@
       <c r="Y32" s="16"/>
       <c r="Z32" s="16"/>
       <c r="AA32" s="16"/>
-      <c r="AB32" s="1"/>
-    </row>
-    <row r="33" spans="1:28" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:27" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="37" t="s">
         <v>57</v>
       </c>
@@ -32251,9 +31948,8 @@
       <c r="Y33" s="43"/>
       <c r="Z33" s="43"/>
       <c r="AA33" s="43"/>
-      <c r="AB33" s="38"/>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>181</v>
       </c>
@@ -32326,9 +32022,8 @@
       <c r="AA34" s="16">
         <v>0</v>
       </c>
-      <c r="AB34" s="1"/>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>303</v>
       </c>
@@ -32398,9 +32093,8 @@
       <c r="AA35" s="16">
         <v>0</v>
       </c>
-      <c r="AB35" s="1"/>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>301</v>
       </c>
@@ -32470,9 +32164,8 @@
       <c r="AA36" s="16">
         <v>0</v>
       </c>
-      <c r="AB36" s="1"/>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>302</v>
       </c>
@@ -32542,9 +32235,8 @@
       <c r="AA37" s="16">
         <v>0</v>
       </c>
-      <c r="AB37" s="1"/>
-    </row>
-    <row r="38" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>337</v>
       </c>
@@ -32614,9 +32306,8 @@
       <c r="AA38" s="16">
         <v>0</v>
       </c>
-      <c r="AB38" s="1"/>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>334</v>
       </c>
@@ -32686,9 +32377,8 @@
       <c r="AA39" s="16">
         <v>0</v>
       </c>
-      <c r="AB39" s="1"/>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>336</v>
       </c>
@@ -32758,9 +32448,8 @@
       <c r="AA40" s="16">
         <v>0</v>
       </c>
-      <c r="AB40" s="1"/>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>335</v>
       </c>
@@ -32830,9 +32519,8 @@
       <c r="AA41" s="16">
         <v>0</v>
       </c>
-      <c r="AB41" s="1"/>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>318</v>
       </c>
@@ -32902,9 +32590,8 @@
       <c r="AA42" s="16">
         <v>0</v>
       </c>
-      <c r="AB42" s="1"/>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>319</v>
       </c>
@@ -32974,9 +32661,8 @@
       <c r="AA43" s="16">
         <v>0</v>
       </c>
-      <c r="AB43" s="1"/>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>317</v>
       </c>
@@ -33046,9 +32732,8 @@
       <c r="AA44" s="16">
         <v>0</v>
       </c>
-      <c r="AB44" s="1"/>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>316</v>
       </c>
@@ -33118,9 +32803,8 @@
       <c r="AA45" s="16">
         <v>0</v>
       </c>
-      <c r="AB45" s="1"/>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>315</v>
       </c>
@@ -33190,9 +32874,8 @@
       <c r="AA46" s="16">
         <v>0</v>
       </c>
-      <c r="AB46" s="1"/>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>340</v>
       </c>
@@ -33265,9 +32948,8 @@
       <c r="AA47" s="16">
         <v>0</v>
       </c>
-      <c r="AB47" s="1"/>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>314</v>
       </c>
@@ -33337,9 +33019,8 @@
       <c r="AA48" s="16">
         <v>0</v>
       </c>
-      <c r="AB48" s="1"/>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>341</v>
       </c>
@@ -33409,9 +33090,8 @@
       <c r="AA49" s="16">
         <v>0</v>
       </c>
-      <c r="AB49" s="1"/>
-    </row>
-    <row r="50" spans="1:28" s="59" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:27" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>239</v>
       </c>
@@ -33484,9 +33164,8 @@
       <c r="AA50" s="16">
         <v>0</v>
       </c>
-      <c r="AB50" s="58"/>
-    </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
         <v>80</v>
       </c>
@@ -33564,9 +33243,8 @@
       <c r="AA51" s="16">
         <v>0</v>
       </c>
-      <c r="AB51" s="1"/>
-    </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
         <v>44</v>
       </c>
@@ -33644,9 +33322,8 @@
       <c r="AA52" s="16">
         <v>0</v>
       </c>
-      <c r="AB52" s="1"/>
-    </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>205</v>
       </c>
@@ -33722,9 +33399,8 @@
       <c r="AA53" s="16">
         <v>0</v>
       </c>
-      <c r="AB53" s="1"/>
-    </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>339</v>
       </c>
@@ -33794,9 +33470,8 @@
       <c r="AA54" s="16">
         <v>0</v>
       </c>
-      <c r="AB54" s="1"/>
-    </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>206</v>
       </c>
@@ -33875,7 +33550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
       <c r="E56" s="74"/>
       <c r="F56" s="74"/>
@@ -33902,9 +33577,8 @@
       <c r="Y56" s="16"/>
       <c r="Z56" s="16"/>
       <c r="AA56" s="16"/>
-      <c r="AB56" s="1"/>
-    </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E57" s="74"/>
       <c r="F57" s="74"/>
       <c r="G57" s="7"/>
@@ -33929,7 +33603,7 @@
       <c r="Z57"/>
       <c r="AA57"/>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C58" s="2"/>
       <c r="E58" s="74"/>
       <c r="F58" s="74"/>
@@ -33954,9 +33628,8 @@
       <c r="Y58" s="14"/>
       <c r="Z58" s="14"/>
       <c r="AA58" s="14"/>
-      <c r="AB58" s="1"/>
-    </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C59" s="2"/>
       <c r="E59" s="74"/>
       <c r="F59" s="74"/>
@@ -33982,7 +33655,7 @@
       <c r="Z59"/>
       <c r="AA59"/>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C60" s="2"/>
       <c r="E60" s="74"/>
       <c r="F60" s="74"/>
@@ -34008,7 +33681,7 @@
       <c r="Z60" s="16"/>
       <c r="AA60" s="16"/>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C61" s="2"/>
       <c r="E61" s="74"/>
       <c r="F61" s="74"/>
@@ -34034,7 +33707,7 @@
       <c r="Z61" s="16"/>
       <c r="AA61" s="16"/>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G62" s="7"/>
       <c r="H62" s="30"/>
       <c r="I62" s="5"/>
@@ -34056,9 +33729,8 @@
       <c r="Y62" s="14"/>
       <c r="Z62" s="14"/>
       <c r="AA62" s="14"/>
-      <c r="AB62" s="1"/>
-    </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G63" s="7"/>
       <c r="H63" s="30"/>
       <c r="I63" s="5"/>
@@ -34080,9 +33752,8 @@
       <c r="Y63" s="14"/>
       <c r="Z63" s="14"/>
       <c r="AA63" s="14"/>
-      <c r="AB63" s="1"/>
-    </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G64" s="7"/>
       <c r="H64" s="30"/>
       <c r="I64" s="5"/>
@@ -34104,9 +33775,8 @@
       <c r="Y64" s="14"/>
       <c r="Z64" s="14"/>
       <c r="AA64" s="14"/>
-      <c r="AB64" s="1"/>
-    </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G65" s="7"/>
       <c r="H65" s="30"/>
       <c r="I65" s="5"/>
@@ -34128,9 +33798,8 @@
       <c r="Y65" s="14"/>
       <c r="Z65" s="14"/>
       <c r="AA65" s="14"/>
-      <c r="AB65" s="1"/>
-    </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G66" s="7"/>
       <c r="H66" s="30"/>
       <c r="I66" s="5"/>
@@ -34152,9 +33821,8 @@
       <c r="Y66" s="14"/>
       <c r="Z66" s="14"/>
       <c r="AA66" s="14"/>
-      <c r="AB66" s="1"/>
-    </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G67" s="7"/>
       <c r="H67" s="30"/>
       <c r="I67" s="5"/>
@@ -34176,9 +33844,8 @@
       <c r="Y67" s="14"/>
       <c r="Z67" s="14"/>
       <c r="AA67" s="14"/>
-      <c r="AB67" s="1"/>
-    </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G68" s="7"/>
       <c r="H68" s="30"/>
       <c r="I68" s="5"/>
@@ -34200,9 +33867,8 @@
       <c r="Y68" s="14"/>
       <c r="Z68" s="14"/>
       <c r="AA68" s="14"/>
-      <c r="AB68" s="1"/>
-    </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G69" s="7"/>
       <c r="H69" s="30"/>
       <c r="I69" s="5"/>
@@ -34224,9 +33890,8 @@
       <c r="Y69" s="14"/>
       <c r="Z69" s="14"/>
       <c r="AA69" s="14"/>
-      <c r="AB69" s="1"/>
-    </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G70" s="7"/>
       <c r="H70" s="30"/>
       <c r="I70" s="5"/>
@@ -34248,9 +33913,8 @@
       <c r="Y70" s="14"/>
       <c r="Z70" s="14"/>
       <c r="AA70" s="14"/>
-      <c r="AB70" s="1"/>
-    </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G71" s="7"/>
       <c r="H71" s="30"/>
       <c r="I71" s="5"/>
@@ -34272,9 +33936,8 @@
       <c r="Y71" s="14"/>
       <c r="Z71" s="14"/>
       <c r="AA71" s="14"/>
-      <c r="AB71" s="1"/>
-    </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G72" s="7"/>
       <c r="H72" s="30"/>
       <c r="I72" s="5"/>
@@ -34296,9 +33959,8 @@
       <c r="Y72" s="14"/>
       <c r="Z72" s="14"/>
       <c r="AA72" s="14"/>
-      <c r="AB72" s="1"/>
-    </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C73" s="20"/>
       <c r="E73" s="74"/>
       <c r="F73" s="74"/>
@@ -34323,9 +33985,8 @@
       <c r="Y73" s="14"/>
       <c r="Z73" s="14"/>
       <c r="AA73" s="14"/>
-      <c r="AB73" s="1"/>
-    </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C74" s="20"/>
       <c r="E74" s="74"/>
       <c r="F74" s="74"/>
@@ -34350,9 +34011,8 @@
       <c r="Y74" s="14"/>
       <c r="Z74" s="14"/>
       <c r="AA74" s="14"/>
-      <c r="AB74" s="1"/>
-    </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G75" s="7"/>
       <c r="H75" s="31"/>
       <c r="I75" s="14"/>
@@ -34374,15 +34034,14 @@
       <c r="Y75" s="14"/>
       <c r="Z75" s="14"/>
       <c r="AA75" s="14"/>
-      <c r="AB75" s="1"/>
-    </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
       <c r="H76" s="22"/>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="H77" s="22"/>
     </row>
   </sheetData>
@@ -34612,7 +34271,7 @@
       <formula>IF($B53=1,1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6 AB6">
+  <conditionalFormatting sqref="J6">
     <cfRule type="expression" dxfId="183" priority="89">
       <formula>IF($A6="Esforço total atribuído",1)</formula>
     </cfRule>
@@ -34836,11 +34495,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8024C391-3358-4ABD-9046-4B1C14BF0475}">
-  <dimension ref="A1:AB58"/>
+  <dimension ref="A1:AA58"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q31" sqref="Q31"/>
+      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34857,7 +34516,7 @@
     <col min="12" max="23" width="11.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
@@ -34939,11 +34598,8 @@
       <c r="AA1" s="65" t="s">
         <v>237</v>
       </c>
-      <c r="AB1" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="70" t="s">
         <v>17</v>
       </c>
@@ -35031,9 +34687,8 @@
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="AB2" s="4"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="70" t="s">
         <v>18</v>
       </c>
@@ -35101,9 +34756,8 @@
       <c r="AA3" s="66">
         <v>120</v>
       </c>
-      <c r="AB3" s="13"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="71" t="s">
         <v>19</v>
       </c>
@@ -35196,9 +34850,8 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="AB4" s="4"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="70" t="s">
         <v>99</v>
       </c>
@@ -35278,9 +34931,8 @@
       <c r="AA5" s="44">
         <v>27</v>
       </c>
-      <c r="AB5" s="68"/>
-    </row>
-    <row r="6" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="70" t="s">
         <v>88</v>
       </c>
@@ -35348,9 +35000,8 @@
       <c r="Y6" s="42"/>
       <c r="Z6" s="42"/>
       <c r="AA6" s="42"/>
-      <c r="AB6" s="42"/>
-    </row>
-    <row r="7" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="70" t="s">
         <v>251</v>
       </c>
@@ -35424,9 +35075,8 @@
       <c r="AA7" s="42">
         <v>0</v>
       </c>
-      <c r="AB7" s="42"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="70" t="s">
         <v>89</v>
       </c>
@@ -35504,9 +35154,8 @@
       <c r="AA8" s="16">
         <v>0</v>
       </c>
-      <c r="AB8" s="42"/>
-    </row>
-    <row r="9" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="70" t="s">
         <v>90</v>
       </c>
@@ -35587,9 +35236,8 @@
       <c r="AA9" s="16">
         <v>0</v>
       </c>
-      <c r="AB9" s="42"/>
-    </row>
-    <row r="10" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="70" t="s">
         <v>144</v>
       </c>
@@ -35670,9 +35318,8 @@
       <c r="AA10" s="16">
         <v>0</v>
       </c>
-      <c r="AB10" s="42"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="70" t="s">
         <v>92</v>
       </c>
@@ -35753,9 +35400,8 @@
       <c r="AA11" s="16">
         <v>0</v>
       </c>
-      <c r="AB11" s="42"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="70" t="s">
         <v>91</v>
       </c>
@@ -35833,9 +35479,8 @@
       <c r="AA12" s="16">
         <v>0</v>
       </c>
-      <c r="AB12" s="42"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="70" t="s">
         <v>145</v>
       </c>
@@ -35913,9 +35558,8 @@
       <c r="AA13" s="16">
         <v>0</v>
       </c>
-      <c r="AB13" s="42"/>
-    </row>
-    <row r="14" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="70" t="s">
         <v>146</v>
       </c>
@@ -35993,9 +35637,8 @@
       <c r="AA14" s="16">
         <v>0</v>
       </c>
-      <c r="AB14" s="42"/>
-    </row>
-    <row r="15" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="70" t="s">
         <v>147</v>
       </c>
@@ -36073,9 +35716,8 @@
       <c r="AA15" s="16">
         <v>0</v>
       </c>
-      <c r="AB15" s="42"/>
-    </row>
-    <row r="16" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="70" t="s">
         <v>148</v>
       </c>
@@ -36156,9 +35798,8 @@
       <c r="AA16" s="16">
         <v>0</v>
       </c>
-      <c r="AB16" s="42"/>
-    </row>
-    <row r="17" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="70" t="s">
         <v>193</v>
       </c>
@@ -36227,9 +35868,8 @@
       <c r="Y17" s="42"/>
       <c r="Z17" s="42"/>
       <c r="AA17" s="42"/>
-      <c r="AB17" s="42"/>
-    </row>
-    <row r="18" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="70" t="s">
         <v>172</v>
       </c>
@@ -36305,9 +35945,8 @@
       <c r="AA18" s="16">
         <v>0</v>
       </c>
-      <c r="AB18" s="42"/>
-    </row>
-    <row r="19" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="70" t="s">
         <v>220</v>
       </c>
@@ -36381,9 +36020,8 @@
       <c r="AA19" s="16">
         <v>0</v>
       </c>
-      <c r="AB19" s="42"/>
-    </row>
-    <row r="20" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="70" t="s">
         <v>198</v>
       </c>
@@ -36457,9 +36095,8 @@
       <c r="AA20" s="16">
         <v>0</v>
       </c>
-      <c r="AB20" s="42"/>
-    </row>
-    <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>155</v>
       </c>
@@ -36529,9 +36166,8 @@
       <c r="AA21" s="16">
         <v>0</v>
       </c>
-      <c r="AB21" s="5"/>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="70" t="s">
         <v>132</v>
       </c>
@@ -36612,9 +36248,8 @@
       <c r="AA22" s="16">
         <v>0</v>
       </c>
-      <c r="AB22" s="42"/>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="70" t="s">
         <v>162</v>
       </c>
@@ -36695,9 +36330,8 @@
       <c r="AA23" s="16">
         <v>0</v>
       </c>
-      <c r="AB23" s="42"/>
-    </row>
-    <row r="24" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="70" t="s">
         <v>174</v>
       </c>
@@ -36773,9 +36407,8 @@
       <c r="AA24" s="16">
         <v>0</v>
       </c>
-      <c r="AB24" s="42"/>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="70" t="s">
         <v>225</v>
       </c>
@@ -36849,9 +36482,8 @@
       <c r="AA25" s="16">
         <v>0</v>
       </c>
-      <c r="AB25" s="42"/>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>43</v>
       </c>
@@ -36932,9 +36564,8 @@
       <c r="AA26" s="16">
         <v>0</v>
       </c>
-      <c r="AB26" s="42"/>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>74</v>
       </c>
@@ -37014,9 +36645,8 @@
       <c r="AA27" s="16">
         <v>0</v>
       </c>
-      <c r="AB27" s="42"/>
-    </row>
-    <row r="28" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>76</v>
       </c>
@@ -37096,9 +36726,8 @@
       <c r="AA28" s="16">
         <v>0</v>
       </c>
-      <c r="AB28" s="42"/>
-    </row>
-    <row r="29" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>84</v>
       </c>
@@ -37178,9 +36807,8 @@
       <c r="AA29" s="16">
         <v>0</v>
       </c>
-      <c r="AB29" s="42"/>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>85</v>
       </c>
@@ -37260,9 +36888,8 @@
       <c r="AA30" s="16">
         <v>0</v>
       </c>
-      <c r="AB30" s="42"/>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>86</v>
       </c>
@@ -37342,9 +36969,8 @@
       <c r="AA31" s="16">
         <v>0</v>
       </c>
-      <c r="AB31" s="42"/>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>87</v>
       </c>
@@ -37427,9 +37053,8 @@
       <c r="AA32" s="16">
         <v>0</v>
       </c>
-      <c r="AB32" s="42"/>
-    </row>
-    <row r="33" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="70" t="s">
         <v>142</v>
       </c>
@@ -37507,9 +37132,8 @@
       <c r="AA33" s="16">
         <v>0</v>
       </c>
-      <c r="AB33" s="42"/>
-    </row>
-    <row r="34" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="70" t="s">
         <v>83</v>
       </c>
@@ -37592,9 +37216,8 @@
       <c r="AA34" s="16">
         <v>0</v>
       </c>
-      <c r="AB34" s="42"/>
-    </row>
-    <row r="35" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="70" t="s">
         <v>250</v>
       </c>
@@ -37668,9 +37291,8 @@
       <c r="AA35" s="16">
         <v>0</v>
       </c>
-      <c r="AB35" s="42"/>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="70" t="s">
         <v>271</v>
       </c>
@@ -37747,9 +37369,8 @@
       <c r="AA36" s="16">
         <v>0</v>
       </c>
-      <c r="AB36" s="42"/>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C37" s="82"/>
       <c r="G37" s="7">
         <f>SUM(Tabela145689[[#This Row],[mai/24]:[dez/25]])</f>
@@ -37775,9 +37396,8 @@
       <c r="Y37" s="42"/>
       <c r="Z37" s="42"/>
       <c r="AA37" s="42"/>
-      <c r="AB37" s="42"/>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C38" s="82"/>
       <c r="G38" s="7">
         <f>SUM(Tabela145689[[#This Row],[mai/24]:[dez/25]])</f>
@@ -37803,9 +37423,8 @@
       <c r="Y38" s="42"/>
       <c r="Z38" s="42"/>
       <c r="AA38" s="42"/>
-      <c r="AB38" s="42"/>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C39" s="83"/>
       <c r="E39" s="74"/>
       <c r="F39" s="74"/>
@@ -37829,9 +37448,8 @@
       <c r="Y39" s="16"/>
       <c r="Z39" s="16"/>
       <c r="AA39" s="16"/>
-      <c r="AB39" s="42"/>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C40" s="83"/>
       <c r="E40" s="74"/>
       <c r="F40" s="74"/>
@@ -37855,9 +37473,8 @@
       <c r="Y40" s="16"/>
       <c r="Z40" s="16"/>
       <c r="AA40" s="16"/>
-      <c r="AB40" s="42"/>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C41" s="82"/>
       <c r="H41" s="30"/>
       <c r="I41" s="46"/>
@@ -37879,9 +37496,8 @@
       <c r="Y41" s="42"/>
       <c r="Z41" s="42"/>
       <c r="AA41" s="42"/>
-      <c r="AB41" s="42"/>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C42" s="82"/>
       <c r="H42" s="30"/>
       <c r="I42" s="46"/>
@@ -37903,9 +37519,8 @@
       <c r="Y42" s="42"/>
       <c r="Z42" s="42"/>
       <c r="AA42" s="42"/>
-      <c r="AB42" s="42"/>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C43" s="82"/>
       <c r="H43" s="30"/>
       <c r="I43" s="46"/>
@@ -37927,9 +37542,8 @@
       <c r="Y43" s="42"/>
       <c r="Z43" s="42"/>
       <c r="AA43" s="42"/>
-      <c r="AB43" s="42"/>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C44" s="82"/>
       <c r="H44" s="30"/>
       <c r="I44" s="46"/>
@@ -37951,9 +37565,8 @@
       <c r="Y44" s="42"/>
       <c r="Z44" s="42"/>
       <c r="AA44" s="42"/>
-      <c r="AB44" s="42"/>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C45" s="82"/>
       <c r="H45" s="30"/>
       <c r="I45" s="28"/>
@@ -37975,9 +37588,8 @@
       <c r="Y45" s="5"/>
       <c r="Z45" s="5"/>
       <c r="AA45" s="5"/>
-      <c r="AB45" s="5"/>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C46" s="82"/>
       <c r="H46" s="30"/>
       <c r="I46" s="28"/>
@@ -37999,9 +37611,8 @@
       <c r="Y46" s="5"/>
       <c r="Z46" s="5"/>
       <c r="AA46" s="5"/>
-      <c r="AB46" s="5"/>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="H47" s="5">
         <v>8</v>
       </c>
@@ -38028,9 +37639,8 @@
       <c r="Y47" s="5"/>
       <c r="Z47" s="5"/>
       <c r="AA47" s="5"/>
-      <c r="AB47" s="5"/>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="Q48" s="14"/>
       <c r="S48" s="14"/>
       <c r="T48" s="14"/>
@@ -38041,9 +37651,8 @@
       <c r="Y48" s="5"/>
       <c r="Z48" s="5"/>
       <c r="AA48" s="5"/>
-      <c r="AB48" s="5"/>
-    </row>
-    <row r="49" spans="17:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="17:27" x14ac:dyDescent="0.25">
       <c r="Q49" s="14"/>
       <c r="S49" s="14"/>
       <c r="T49" s="14"/>
@@ -38054,9 +37663,8 @@
       <c r="Y49" s="5"/>
       <c r="Z49" s="5"/>
       <c r="AA49" s="5"/>
-      <c r="AB49" s="5"/>
-    </row>
-    <row r="50" spans="17:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="17:27" x14ac:dyDescent="0.25">
       <c r="Q50" s="14"/>
       <c r="S50" s="14"/>
       <c r="T50" s="14"/>
@@ -38067,9 +37675,8 @@
       <c r="Y50" s="5"/>
       <c r="Z50" s="5"/>
       <c r="AA50" s="5"/>
-      <c r="AB50" s="5"/>
-    </row>
-    <row r="51" spans="17:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="17:27" x14ac:dyDescent="0.25">
       <c r="Q51" s="14"/>
       <c r="S51" s="14"/>
       <c r="T51" s="14"/>
@@ -38080,9 +37687,8 @@
       <c r="Y51" s="5"/>
       <c r="Z51" s="5"/>
       <c r="AA51" s="5"/>
-      <c r="AB51" s="5"/>
-    </row>
-    <row r="52" spans="17:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="17:27" x14ac:dyDescent="0.25">
       <c r="Q52" s="14"/>
       <c r="S52" s="14"/>
       <c r="T52" s="14"/>
@@ -38093,9 +37699,8 @@
       <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
       <c r="AA52" s="5"/>
-      <c r="AB52" s="5"/>
-    </row>
-    <row r="53" spans="17:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="17:27" x14ac:dyDescent="0.25">
       <c r="Q53" s="14"/>
       <c r="S53" s="14"/>
       <c r="T53" s="14"/>
@@ -38106,9 +37711,8 @@
       <c r="Y53" s="5"/>
       <c r="Z53" s="5"/>
       <c r="AA53" s="5"/>
-      <c r="AB53" s="5"/>
-    </row>
-    <row r="54" spans="17:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="17:27" x14ac:dyDescent="0.25">
       <c r="Q54" s="14"/>
       <c r="S54" s="14"/>
       <c r="T54" s="14"/>
@@ -38119,9 +37723,8 @@
       <c r="Y54" s="5"/>
       <c r="Z54" s="5"/>
       <c r="AA54" s="5"/>
-      <c r="AB54" s="5"/>
-    </row>
-    <row r="55" spans="17:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="17:27" x14ac:dyDescent="0.25">
       <c r="Q55" s="14"/>
       <c r="S55" s="14"/>
       <c r="T55" s="14"/>
@@ -38132,9 +37735,8 @@
       <c r="Y55" s="5"/>
       <c r="Z55" s="5"/>
       <c r="AA55" s="5"/>
-      <c r="AB55" s="5"/>
-    </row>
-    <row r="56" spans="17:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="17:27" x14ac:dyDescent="0.25">
       <c r="Q56" s="14"/>
       <c r="S56" s="14"/>
       <c r="T56" s="14"/>
@@ -38145,9 +37747,8 @@
       <c r="Y56" s="5"/>
       <c r="Z56" s="5"/>
       <c r="AA56" s="5"/>
-      <c r="AB56" s="5"/>
-    </row>
-    <row r="57" spans="17:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="17:27" x14ac:dyDescent="0.25">
       <c r="Q57" s="14"/>
       <c r="S57" s="14"/>
       <c r="T57" s="14"/>
@@ -38158,9 +37759,8 @@
       <c r="Y57" s="5"/>
       <c r="Z57" s="5"/>
       <c r="AA57" s="5"/>
-      <c r="AB57" s="5"/>
-    </row>
-    <row r="58" spans="17:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="17:27" x14ac:dyDescent="0.25">
       <c r="Q58" s="14"/>
       <c r="S58" s="14"/>
       <c r="T58" s="14"/>
@@ -38171,7 +37771,6 @@
       <c r="Y58" s="5"/>
       <c r="Z58" s="5"/>
       <c r="AA58" s="5"/>
-      <c r="AB58" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -38627,6 +38226,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010055299C8A5E56DF42BB3A496FAB31A3CA" ma:contentTypeVersion="14" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="f48546ee30a9c08b8c56cc99cae99613">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="886f8626-7949-4fe5-8403-a629ca357b95" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4da67acbd85d4947d1135fd4f9dd5422" ns2:_="">
     <xsd:import namespace="886f8626-7949-4fe5-8403-a629ca357b95"/>
@@ -38770,12 +38375,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E1C848C-A0C9-41E4-8BB1-646104CE90D9}">
   <ds:schemaRefs>
@@ -38785,6 +38384,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{076963EF-7E18-4286-B416-ADA05C6F6E23}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="886f8626-7949-4fe5-8403-a629ca357b95"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19D166CF-06BA-4724-B53B-B9598BFDF5ED}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -38802,22 +38417,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{076963EF-7E18-4286-B416-ADA05C6F6E23}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="886f8626-7949-4fe5-8403-a629ca357b95"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{886666a6-a8d2-4604-a002-95b622cb7e18}" enabled="0" method="" siteId="{886666a6-a8d2-4604-a002-95b622cb7e18}" removed="1"/>
